--- a/assets/Dx stats.xlsx
+++ b/assets/Dx stats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\atelfo.github.io\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACCD29C2-362C-4CC2-AC49-E045BE0ACC53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D822BF-D3E6-4D9F-B585-AAF29000DCA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="2" xr2:uid="{81DE6EE8-0027-492D-AF58-69F03109B8D0}"/>
+    <workbookView xWindow="-28920" yWindow="2280" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{81DE6EE8-0027-492D-AF58-69F03109B8D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Average time to Dx" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="413">
   <si>
     <t>Indication</t>
   </si>
@@ -1269,14 +1269,24 @@
   </si>
   <si>
     <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>M (per year)</t>
+  </si>
+  <si>
+    <t>in months</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="0.0000%"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -1372,7 +1382,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -1386,6 +1396,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1531,6 +1542,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF5F5F5"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2409,6 +2425,187 @@
           <c:h val="0.82078458491733819"/>
         </c:manualLayout>
       </c:layout>
+      <c:areaChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Time to Dx vs. mortality'!$AC$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>p(Dx+)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="F5F5F5"/>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Time to Dx vs. mortality'!$AH$3:$AH$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.6000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>140</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Time to Dx vs. mortality'!$AF$3:$AF$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000%</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99997343860111243</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.65132155989999985</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.40950999999999982</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.23156652857908377</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16104722339245814</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.12339662821723285</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.9999999999999978E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.7830248213842315E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.1316701949486232E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.4510615394370281E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.5996253574703254E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.0851637639023202E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.7406806147310161E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4938794558884472E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.3083718633998487E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.1638466884251741E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.0480741793785553E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.5325035687154891E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.7416109546967213E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-75BA-4D9D-A7B6-FC7E1CC8EE17}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="614854224"/>
+        <c:axId val="614851272"/>
+      </c:areaChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -2454,7 +2651,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7DD25DC3-AD51-4E42-9D2D-DA25FAB2B653}" type="CELLRANGE">
+                    <a:fld id="{6C4B76A4-C4EC-4DB9-9E23-139D5FFF84BB}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2804,60 +3001,18 @@
               <c:idx val="33"/>
               <c:tx>
                 <c:rich>
-                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="0"/>
+                  <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:pPr algn="l">
-                      <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1">
-                            <a:lumMod val="75000"/>
-                            <a:lumOff val="25000"/>
-                          </a:schemeClr>
-                        </a:solidFill>
-                        <a:latin typeface="AkzidenzGrotesk" panose="02000503050000020003" pitchFamily="2" charset="0"/>
-                        <a:ea typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:defRPr>
-                    </a:pPr>
-                    <a:fld id="{EA532417-C7E4-40A5-8CEB-EF2EE90E8490}" type="CELLRANGE">
+                    <a:fld id="{10F8B474-8EA2-4BEF-9016-355EBF8C2EE9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
-                      <a:pPr algn="l">
-                        <a:defRPr/>
-                      </a:pPr>
+                      <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="0"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr algn="l">
-                    <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="75000"/>
-                          <a:lumOff val="25000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="AkzidenzGrotesk" panose="02000503050000020003" pitchFamily="2" charset="0"/>
-                      <a:ea typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -2882,13 +3037,19 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="34"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.9391293020964542E-3"/>
+                  <c:y val="-2.1583562996657559E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3D3F9FAE-9D8F-45B8-BD7B-80E60CB670B3}" type="CELLRANGE">
-                      <a:rPr lang="en-GB"/>
+                    <a:fld id="{EA9C7542-62B0-4A54-9307-DDB32433361F}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -2905,7 +3066,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2976,7 +3136,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{25E39B18-1ACC-4ACB-9943-69B95AA91166}" type="CELLRANGE">
+                    <a:fld id="{ABF079DE-47C0-4955-9D52-D4E9B113BFE7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3019,9 +3179,32 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="42"/>
-              <c:delete val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{585B8082-DE19-434A-A4B7-1280CD2B5F46}" type="CELLRANGE">
+                      <a:rPr lang="en-GB"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000002C-0F27-4D3C-B3C1-6C30F6F61EF9}"/>
                 </c:ext>
@@ -3029,9 +3212,32 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="43"/>
-              <c:delete val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{1CD00530-0906-4C8C-9005-7D7C8D80B917}" type="CELLRANGE">
+                      <a:rPr lang="en-GB"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000002D-0F27-4D3C-B3C1-6C30F6F61EF9}"/>
                 </c:ext>
@@ -3044,7 +3250,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6E66407D-F620-4B97-B7E5-51D348E4EE4E}" type="CELLRANGE">
+                    <a:fld id="{F4326E70-2503-425A-A902-36C3CCBA0EA8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3082,7 +3288,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EFE02A94-1107-4FD9-9286-27393608F70A}" type="CELLRANGE">
+                    <a:fld id="{FB1CCE45-66C6-4963-9899-A4FAB6494AC6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3126,7 +3332,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7DEBF887-F47F-403F-842D-D5D0E758F9E8}" type="CELLRANGE">
+                    <a:fld id="{DF531A20-A14E-4A6D-9382-B203DBF5B91F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3174,7 +3380,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8796E5A8-E471-478A-A81C-9FA018EF2462}" type="CELLRANGE">
+                    <a:fld id="{3ED5CE5B-6FEB-4570-918D-290275205B5D}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3207,7 +3413,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{48662B66-C5BE-4398-A422-88F880661D42}" type="CELLRANGE">
+                    <a:fld id="{D1727B3A-8AF6-45F3-A4F2-CF7A64A7211F}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3240,7 +3446,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2D8205B1-9130-44B9-9E2D-DA70747596D3}" type="CELLRANGE">
+                    <a:fld id="{7E945B53-F389-4020-AA93-AA7C56626472}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3273,7 +3479,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E9114D1E-83C3-49CA-B468-C40215B3FF33}" type="CELLRANGE">
+                    <a:fld id="{D0561D9B-8EFC-4B9D-89B8-A2F7D7EF7263}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3363,7 +3569,21 @@
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showDataLabelsRange val="1"/>
-                <c15:showLeaderLines val="0"/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -3883,8 +4103,6 @@
         <c:axId val="701756640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="150"/>
-          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -4090,6 +4308,39 @@
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
       </c:valAx>
+      <c:valAx>
+        <c:axId val="614851272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.8"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0.0000%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="614854224"/>
+        <c:crossesAt val="21"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:dateAx>
+        <c:axId val="614854224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="t"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="614851272"/>
+        <c:crosses val="max"/>
+        <c:auto val="0"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -5256,16 +5507,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>434209</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>108059</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>316978</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>42117</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>120214</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>184259</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>2983</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>118317</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5292,16 +5543,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>575701</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>172570</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>199830</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>113954</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>582705</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>168088</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>206834</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>109472</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5328,16 +5579,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>145676</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>58615</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>386523</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>186523</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>446942</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>58615</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>566057</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>186523</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5352,8 +5603,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14396541" y="9964615"/>
-          <a:ext cx="6990747" cy="0"/>
+          <a:off x="16742309" y="9330523"/>
+          <a:ext cx="8104334" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -5458,7 +5709,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{9434C479-1C7F-4F7F-A60F-07D41922F376}" name="Table36" displayName="Table36" ref="A1:F3" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{9434C479-1C7F-4F7F-A60F-07D41922F376}" name="Table36" displayName="Table36" ref="A1:F3" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="A1:F3" xr:uid="{9434C479-1C7F-4F7F-A60F-07D41922F376}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{9E5052FC-8865-4C45-ACF9-01CED35EEDD1}" name="Indication"/>
@@ -5473,7 +5724,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{85050C1A-9E69-474A-800C-037D14C54F8E}" name="Table35" displayName="Table35" ref="A1:F16" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{85050C1A-9E69-474A-800C-037D14C54F8E}" name="Table35" displayName="Table35" ref="A1:F16" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="A1:F16" xr:uid="{0CD6A652-9B8C-4BE6-A3C4-3A018D44C79C}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{B3D76C6A-4FD0-410E-8704-B1649668327E}" name="Indication"/>
@@ -5786,8 +6037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CA5513E-26DC-4C85-8B8F-1046086877AA}">
   <dimension ref="A1:L95"/>
   <sheetViews>
-    <sheetView topLeftCell="B22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I69" sqref="I33:I69"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5866,7 +6117,7 @@
         <v>16</v>
       </c>
       <c r="I2" s="3">
-        <f>IF(G2="Days", E2/30, IF(G2="Years", E2*12, IF(G2="Weeks", E2/4, E2)))</f>
+        <f t="shared" ref="I2:I33" si="0">IF(G2="Days", E2/30, IF(G2="Years", E2*12, IF(G2="Weeks", E2/4, E2)))</f>
         <v>2.222222222222222E-2</v>
       </c>
       <c r="J2" s="2" t="s">
@@ -5900,7 +6151,7 @@
         <v>16</v>
       </c>
       <c r="I3" s="3">
-        <f>IF(G3="Days", E3/30, IF(G3="Years", E3*12, IF(G3="Weeks", E3/4, E3)))</f>
+        <f t="shared" si="0"/>
         <v>0.23333333333333334</v>
       </c>
       <c r="J3" s="2" t="s">
@@ -5934,7 +6185,7 @@
         <v>16</v>
       </c>
       <c r="I4" s="3">
-        <f>IF(G4="Days", E4/30, IF(G4="Years", E4*12, IF(G4="Weeks", E4/4, E4)))</f>
+        <f t="shared" si="0"/>
         <v>0.25666666666666665</v>
       </c>
       <c r="J4" s="2" t="s">
@@ -5969,7 +6220,7 @@
         <v>16</v>
       </c>
       <c r="I5" s="3">
-        <f>IF(G5="Days", E5/30, IF(G5="Years", E5*12, IF(G5="Weeks", E5/4, E5)))</f>
+        <f t="shared" si="0"/>
         <v>0.31</v>
       </c>
       <c r="J5" t="s">
@@ -6003,7 +6254,7 @@
         <v>16</v>
       </c>
       <c r="I6" s="3">
-        <f>IF(G6="Days", E6/30, IF(G6="Years", E6*12, IF(G6="Weeks", E6/4, E6)))</f>
+        <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="J6" s="2" t="s">
@@ -6040,7 +6291,7 @@
         <v>233</v>
       </c>
       <c r="I7" s="3">
-        <f>IF(G7="Days", E7/30, IF(G7="Years", E7*12, IF(G7="Weeks", E7/4, E7)))</f>
+        <f t="shared" si="0"/>
         <v>1.325</v>
       </c>
       <c r="J7" t="s">
@@ -6077,7 +6328,7 @@
         <v>215</v>
       </c>
       <c r="I8" s="3">
-        <f>IF(G8="Days", E8/30, IF(G8="Years", E8*12, IF(G8="Weeks", E8/4, E8)))</f>
+        <f t="shared" si="0"/>
         <v>1.4</v>
       </c>
       <c r="J8" s="2" t="s">
@@ -6114,7 +6365,7 @@
         <v>110</v>
       </c>
       <c r="I9" s="3">
-        <f>IF(G9="Days", E9/30, IF(G9="Years", E9*12, IF(G9="Weeks", E9/4, E9)))</f>
+        <f t="shared" si="0"/>
         <v>1.4</v>
       </c>
       <c r="J9" t="s">
@@ -6151,7 +6402,7 @@
         <v>272</v>
       </c>
       <c r="I10" s="3">
-        <f>IF(G10="Days", E10/30, IF(G10="Years", E10*12, IF(G10="Weeks", E10/4, E10)))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="J10" s="2" t="s">
@@ -6185,7 +6436,7 @@
         <v>16</v>
       </c>
       <c r="I11" s="3">
-        <f>IF(G11="Days", E11/30, IF(G11="Years", E11*12, IF(G11="Weeks", E11/4, E11)))</f>
+        <f t="shared" si="0"/>
         <v>2.14</v>
       </c>
       <c r="J11" s="2" t="s">
@@ -6222,7 +6473,7 @@
         <v>117</v>
       </c>
       <c r="I12" s="3">
-        <f>IF(G12="Days", E12/30, IF(G12="Years", E12*12, IF(G12="Weeks", E12/4, E12)))</f>
+        <f t="shared" si="0"/>
         <v>2.25</v>
       </c>
       <c r="J12" s="2" t="s">
@@ -6259,7 +6510,7 @@
         <v>188</v>
       </c>
       <c r="I13" s="3">
-        <f>IF(G13="Days", E13/30, IF(G13="Years", E13*12, IF(G13="Weeks", E13/4, E13)))</f>
+        <f t="shared" si="0"/>
         <v>2.4666666666666668</v>
       </c>
       <c r="J13" s="2" t="s">
@@ -6296,7 +6547,7 @@
         <v>208</v>
       </c>
       <c r="I14" s="3">
-        <f>IF(G14="Days", E14/30, IF(G14="Years", E14*12, IF(G14="Weeks", E14/4, E14)))</f>
+        <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
       <c r="J14" s="2" t="s">
@@ -6330,7 +6581,7 @@
         <v>31</v>
       </c>
       <c r="I15" s="3">
-        <f>IF(G15="Days", E15/30, IF(G15="Years", E15*12, IF(G15="Weeks", E15/4, E15)))</f>
+        <f t="shared" si="0"/>
         <v>2.8666666666666667</v>
       </c>
       <c r="J15" t="s">
@@ -6367,7 +6618,7 @@
         <v>160</v>
       </c>
       <c r="I16" s="3">
-        <f>IF(G16="Days", E16/30, IF(G16="Years", E16*12, IF(G16="Weeks", E16/4, E16)))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="J16" s="2" t="s">
@@ -6401,7 +6652,7 @@
         <v>16</v>
       </c>
       <c r="I17" s="3">
-        <f>IF(G17="Days", E17/30, IF(G17="Years", E17*12, IF(G17="Weeks", E17/4, E17)))</f>
+        <f t="shared" si="0"/>
         <v>3.3</v>
       </c>
       <c r="J17" s="2" t="s">
@@ -6435,7 +6686,7 @@
         <v>27</v>
       </c>
       <c r="I18" s="3">
-        <f>IF(G18="Days", E18/30, IF(G18="Years", E18*12, IF(G18="Weeks", E18/4, E18)))</f>
+        <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
       <c r="J18" s="2" t="s">
@@ -6469,7 +6720,7 @@
         <v>27</v>
       </c>
       <c r="I19" s="3">
-        <f>IF(G19="Days", E19/30, IF(G19="Years", E19*12, IF(G19="Weeks", E19/4, E19)))</f>
+        <f t="shared" si="0"/>
         <v>3.6</v>
       </c>
       <c r="J19" t="s">
@@ -6503,7 +6754,7 @@
         <v>13</v>
       </c>
       <c r="I20" s="3">
-        <f>IF(G20="Days", E20/30, IF(G20="Years", E20*12, IF(G20="Weeks", E20/4, E20)))</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="J20" s="2" t="s">
@@ -6540,7 +6791,7 @@
         <v>259</v>
       </c>
       <c r="I21" s="3">
-        <f>IF(G21="Days", E21/30, IF(G21="Years", E21*12, IF(G21="Weeks", E21/4, E21)))</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="J21" s="2" t="s">
@@ -6574,7 +6825,7 @@
         <v>16</v>
       </c>
       <c r="I22" s="3">
-        <f>IF(G22="Days", E22/30, IF(G22="Years", E22*12, IF(G22="Weeks", E22/4, E22)))</f>
+        <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
       <c r="J22" s="2" t="s">
@@ -6608,7 +6859,7 @@
         <v>27</v>
       </c>
       <c r="I23" s="3">
-        <f>IF(G23="Days", E23/30, IF(G23="Years", E23*12, IF(G23="Weeks", E23/4, E23)))</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="J23" s="2" t="s">
@@ -6642,7 +6893,7 @@
         <v>16</v>
       </c>
       <c r="I24" s="3">
-        <f>IF(G24="Days", E24/30, IF(G24="Years", E24*12, IF(G24="Weeks", E24/4, E24)))</f>
+        <f t="shared" si="0"/>
         <v>5.0666666666666664</v>
       </c>
       <c r="J24" t="s">
@@ -6676,7 +6927,7 @@
         <v>27</v>
       </c>
       <c r="I25" s="3">
-        <f>IF(G25="Days", E25/30, IF(G25="Years", E25*12, IF(G25="Weeks", E25/4, E25)))</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="J25" s="2" t="s">
@@ -6713,7 +6964,7 @@
         <v>158</v>
       </c>
       <c r="I26" s="3">
-        <f>IF(G26="Days", E26/30, IF(G26="Years", E26*12, IF(G26="Weeks", E26/4, E26)))</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="J26" s="2" t="s">
@@ -6747,7 +6998,7 @@
         <v>27</v>
       </c>
       <c r="I27" s="3">
-        <f>IF(G27="Days", E27/30, IF(G27="Years", E27*12, IF(G27="Weeks", E27/4, E27)))</f>
+        <f t="shared" si="0"/>
         <v>6.1</v>
       </c>
       <c r="J27" s="2" t="s">
@@ -6784,7 +7035,7 @@
         <v>191</v>
       </c>
       <c r="I28" s="3">
-        <f>IF(G28="Days", E28/30, IF(G28="Years", E28*12, IF(G28="Weeks", E28/4, E28)))</f>
+        <f t="shared" si="0"/>
         <v>6.19</v>
       </c>
       <c r="J28" t="s">
@@ -6821,7 +7072,7 @@
         <v>170</v>
       </c>
       <c r="I29" s="3">
-        <f>IF(G29="Days", E29/30, IF(G29="Years", E29*12, IF(G29="Weeks", E29/4, E29)))</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="J29" s="2" t="s">
@@ -6858,7 +7109,7 @@
         <v>179</v>
       </c>
       <c r="I30" s="3">
-        <f>IF(G30="Days", E30/30, IF(G30="Years", E30*12, IF(G30="Weeks", E30/4, E30)))</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="J30" t="s">
@@ -6895,7 +7146,7 @@
         <v>277</v>
       </c>
       <c r="I31" s="3">
-        <f>IF(G31="Days", E31/30, IF(G31="Years", E31*12, IF(G31="Weeks", E31/4, E31)))</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="J31" s="2" t="s">
@@ -6932,7 +7183,7 @@
         <v>63</v>
       </c>
       <c r="I32" s="3">
-        <f>IF(G32="Days", E32/30, IF(G32="Years", E32*12, IF(G32="Weeks", E32/4, E32)))</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="J32" t="s">
@@ -6969,7 +7220,7 @@
         <v>108</v>
       </c>
       <c r="I33" s="3">
-        <f>IF(G33="Days", E33/30, IF(G33="Years", E33*12, IF(G33="Weeks", E33/4, E33)))</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="J33" s="2" t="s">
@@ -7006,7 +7257,7 @@
         <v>165</v>
       </c>
       <c r="I34" s="3">
-        <f>IF(G34="Days", E34/30, IF(G34="Years", E34*12, IF(G34="Weeks", E34/4, E34)))</f>
+        <f t="shared" ref="I34:I65" si="1">IF(G34="Days", E34/30, IF(G34="Years", E34*12, IF(G34="Weeks", E34/4, E34)))</f>
         <v>12</v>
       </c>
       <c r="J34" s="2" t="s">
@@ -7040,7 +7291,7 @@
         <v>27</v>
       </c>
       <c r="I35" s="3">
-        <f>IF(G35="Days", E35/30, IF(G35="Years", E35*12, IF(G35="Weeks", E35/4, E35)))</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="J35" s="2" t="s">
@@ -7077,7 +7328,7 @@
         <v>93</v>
       </c>
       <c r="I36" s="3">
-        <f>IF(G36="Days", E36/30, IF(G36="Years", E36*12, IF(G36="Weeks", E36/4, E36)))</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="J36" s="2" t="s">
@@ -7114,7 +7365,7 @@
         <v>298</v>
       </c>
       <c r="I37" s="3">
-        <f>IF(G37="Days", E37/30, IF(G37="Years", E37*12, IF(G37="Weeks", E37/4, E37)))</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="J37" s="2" t="s">
@@ -7148,7 +7399,7 @@
         <v>27</v>
       </c>
       <c r="I38" s="3">
-        <f>IF(G38="Days", E38/30, IF(G38="Years", E38*12, IF(G38="Weeks", E38/4, E38)))</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="J38" s="2" t="s">
@@ -7182,7 +7433,7 @@
         <v>27</v>
       </c>
       <c r="I39" s="3">
-        <f>IF(G39="Days", E39/30, IF(G39="Years", E39*12, IF(G39="Weeks", E39/4, E39)))</f>
+        <f t="shared" si="1"/>
         <v>14.3</v>
       </c>
       <c r="J39" t="s">
@@ -7219,7 +7470,7 @@
         <v>138</v>
       </c>
       <c r="I40" s="3">
-        <f>IF(G40="Days", E40/30, IF(G40="Years", E40*12, IF(G40="Weeks", E40/4, E40)))</f>
+        <f t="shared" si="1"/>
         <v>14.399999999999999</v>
       </c>
       <c r="J40" s="2" t="s">
@@ -7253,7 +7504,7 @@
         <v>27</v>
       </c>
       <c r="I41" s="3">
-        <f>IF(G41="Days", E41/30, IF(G41="Years", E41*12, IF(G41="Weeks", E41/4, E41)))</f>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="J41" t="s">
@@ -7290,7 +7541,7 @@
         <v>57</v>
       </c>
       <c r="I42" s="3">
-        <f>IF(G42="Days", E42/30, IF(G42="Years", E42*12, IF(G42="Weeks", E42/4, E42)))</f>
+        <f t="shared" si="1"/>
         <v>18.5</v>
       </c>
       <c r="J42" s="2" t="s">
@@ -7327,7 +7578,7 @@
         <v>292</v>
       </c>
       <c r="I43" s="3">
-        <f>IF(G43="Days", E43/30, IF(G43="Years", E43*12, IF(G43="Weeks", E43/4, E43)))</f>
+        <f t="shared" si="1"/>
         <v>19.200000000000003</v>
       </c>
       <c r="J43" s="2" t="s">
@@ -7358,7 +7609,7 @@
         <v>27</v>
       </c>
       <c r="I44" s="3">
-        <f>IF(G44="Days", E44/30, IF(G44="Years", E44*12, IF(G44="Weeks", E44/4, E44)))</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="J44" s="2" t="s">
@@ -7395,7 +7646,7 @@
         <v>151</v>
       </c>
       <c r="I45" s="3">
-        <f>IF(G45="Days", E45/30, IF(G45="Years", E45*12, IF(G45="Weeks", E45/4, E45)))</f>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="J45" s="2" t="s">
@@ -7432,7 +7683,7 @@
         <v>196</v>
       </c>
       <c r="I46" s="3">
-        <f>IF(G46="Days", E46/30, IF(G46="Years", E46*12, IF(G46="Weeks", E46/4, E46)))</f>
+        <f t="shared" si="1"/>
         <v>21.3</v>
       </c>
       <c r="J46" s="2" t="s">
@@ -7466,7 +7717,7 @@
         <v>27</v>
       </c>
       <c r="I47" s="3">
-        <f>IF(G47="Days", E47/30, IF(G47="Years", E47*12, IF(G47="Weeks", E47/4, E47)))</f>
+        <f t="shared" si="1"/>
         <v>22.6</v>
       </c>
       <c r="J47" s="2" t="s">
@@ -7503,7 +7754,7 @@
         <v>265</v>
       </c>
       <c r="I48" s="3">
-        <f>IF(G48="Days", E48/30, IF(G48="Years", E48*12, IF(G48="Weeks", E48/4, E48)))</f>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="J48" t="s">
@@ -7540,7 +7791,7 @@
         <v>45</v>
       </c>
       <c r="I49" s="3">
-        <f>IF(G49="Days", E49/30, IF(G49="Years", E49*12, IF(G49="Weeks", E49/4, E49)))</f>
+        <f t="shared" si="1"/>
         <v>25.200000000000003</v>
       </c>
       <c r="J49" t="s">
@@ -7577,7 +7828,7 @@
         <v>98</v>
       </c>
       <c r="I50" s="3">
-        <f>IF(G50="Days", E50/30, IF(G50="Years", E50*12, IF(G50="Weeks", E50/4, E50)))</f>
+        <f t="shared" si="1"/>
         <v>25.200000000000003</v>
       </c>
       <c r="J50" t="s">
@@ -7614,7 +7865,7 @@
         <v>46</v>
       </c>
       <c r="I51" s="3">
-        <f>IF(G51="Days", E51/30, IF(G51="Years", E51*12, IF(G51="Weeks", E51/4, E51)))</f>
+        <f t="shared" si="1"/>
         <v>26.400000000000002</v>
       </c>
       <c r="J51" t="s">
@@ -7651,7 +7902,7 @@
         <v>182</v>
       </c>
       <c r="I52" s="3">
-        <f>IF(G52="Days", E52/30, IF(G52="Years", E52*12, IF(G52="Weeks", E52/4, E52)))</f>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="J52" t="s">
@@ -7688,7 +7939,7 @@
         <v>252</v>
       </c>
       <c r="I53" s="3">
-        <f>IF(G53="Days", E53/30, IF(G53="Years", E53*12, IF(G53="Weeks", E53/4, E53)))</f>
+        <f t="shared" si="1"/>
         <v>28.75</v>
       </c>
       <c r="J53" s="2" t="s">
@@ -7722,7 +7973,7 @@
         <v>27</v>
       </c>
       <c r="I54" s="3">
-        <f>IF(G54="Days", E54/30, IF(G54="Years", E54*12, IF(G54="Weeks", E54/4, E54)))</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="J54" s="2" t="s">
@@ -7756,7 +8007,7 @@
         <v>27</v>
       </c>
       <c r="I55" s="3">
-        <f>IF(G55="Days", E55/30, IF(G55="Years", E55*12, IF(G55="Weeks", E55/4, E55)))</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="J55" t="s">
@@ -7793,7 +8044,7 @@
         <v>76</v>
       </c>
       <c r="I56" s="3">
-        <f>IF(G56="Days", E56/30, IF(G56="Years", E56*12, IF(G56="Weeks", E56/4, E56)))</f>
+        <f t="shared" si="1"/>
         <v>31.200000000000003</v>
       </c>
       <c r="J56" t="s">
@@ -7827,7 +8078,7 @@
         <v>27</v>
       </c>
       <c r="I57" s="3">
-        <f>IF(G57="Days", E57/30, IF(G57="Years", E57*12, IF(G57="Weeks", E57/4, E57)))</f>
+        <f t="shared" si="1"/>
         <v>32.89</v>
       </c>
       <c r="J57" s="2" t="s">
@@ -7864,7 +8115,7 @@
         <v>184</v>
       </c>
       <c r="I58" s="3">
-        <f>IF(G58="Days", E58/30, IF(G58="Years", E58*12, IF(G58="Weeks", E58/4, E58)))</f>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="J58" s="2" t="s">
@@ -7901,7 +8152,7 @@
         <v>36</v>
       </c>
       <c r="I59" s="3">
-        <f>IF(G59="Days", E59/30, IF(G59="Years", E59*12, IF(G59="Weeks", E59/4, E59)))</f>
+        <f t="shared" si="1"/>
         <v>33.599999999999994</v>
       </c>
       <c r="J59" t="s">
@@ -7935,7 +8186,7 @@
         <v>27</v>
       </c>
       <c r="I60" s="3">
-        <f>IF(G60="Days", E60/30, IF(G60="Years", E60*12, IF(G60="Weeks", E60/4, E60)))</f>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="J60" s="2" t="s">
@@ -7972,7 +8223,7 @@
         <v>44</v>
       </c>
       <c r="I61" s="3">
-        <f>IF(G61="Days", E61/30, IF(G61="Years", E61*12, IF(G61="Weeks", E61/4, E61)))</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="J61" t="s">
@@ -8009,7 +8260,7 @@
         <v>133</v>
       </c>
       <c r="I62" s="3">
-        <f>IF(G62="Days", E62/30, IF(G62="Years", E62*12, IF(G62="Weeks", E62/4, E62)))</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="J62" t="s">
@@ -8046,7 +8297,7 @@
         <v>53</v>
       </c>
       <c r="I63" s="3">
-        <f>IF(G63="Days", E63/30, IF(G63="Years", E63*12, IF(G63="Weeks", E63/4, E63)))</f>
+        <f t="shared" si="1"/>
         <v>37.200000000000003</v>
       </c>
       <c r="J63" t="s">
@@ -8080,7 +8331,7 @@
         <v>27</v>
       </c>
       <c r="I64" s="3">
-        <f>IF(G64="Days", E64/30, IF(G64="Years", E64*12, IF(G64="Weeks", E64/4, E64)))</f>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="J64" s="2" t="s">
@@ -8114,7 +8365,7 @@
         <v>27</v>
       </c>
       <c r="I65" s="3">
-        <f>IF(G65="Days", E65/30, IF(G65="Years", E65*12, IF(G65="Weeks", E65/4, E65)))</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="J65" t="s">
@@ -8148,7 +8399,7 @@
         <v>33</v>
       </c>
       <c r="I66" s="3">
-        <f>IF(G66="Days", E66/30, IF(G66="Years", E66*12, IF(G66="Weeks", E66/4, E66)))</f>
+        <f t="shared" ref="I66:I95" si="2">IF(G66="Days", E66/30, IF(G66="Years", E66*12, IF(G66="Weeks", E66/4, E66)))</f>
         <v>43.2</v>
       </c>
       <c r="J66" s="2" t="s">
@@ -8185,7 +8436,7 @@
         <v>40</v>
       </c>
       <c r="I67" s="3">
-        <f>IF(G67="Days", E67/30, IF(G67="Years", E67*12, IF(G67="Weeks", E67/4, E67)))</f>
+        <f t="shared" si="2"/>
         <v>43.2</v>
       </c>
       <c r="J67" t="s">
@@ -8219,7 +8470,7 @@
         <v>27</v>
       </c>
       <c r="I68" s="3">
-        <f>IF(G68="Days", E68/30, IF(G68="Years", E68*12, IF(G68="Weeks", E68/4, E68)))</f>
+        <f t="shared" si="2"/>
         <v>43.6</v>
       </c>
       <c r="J68" t="s">
@@ -8253,7 +8504,7 @@
         <v>27</v>
       </c>
       <c r="I69" s="3">
-        <f>IF(G69="Days", E69/30, IF(G69="Years", E69*12, IF(G69="Weeks", E69/4, E69)))</f>
+        <f t="shared" si="2"/>
         <v>44</v>
       </c>
       <c r="J69" t="s">
@@ -8290,7 +8541,7 @@
         <v>51</v>
       </c>
       <c r="I70" s="3">
-        <f>IF(G70="Days", E70/30, IF(G70="Years", E70*12, IF(G70="Weeks", E70/4, E70)))</f>
+        <f t="shared" si="2"/>
         <v>45.599999999999994</v>
       </c>
       <c r="J70" t="s">
@@ -8327,7 +8578,7 @@
         <v>40</v>
       </c>
       <c r="I71" s="3">
-        <f>IF(G71="Days", E71/30, IF(G71="Years", E71*12, IF(G71="Weeks", E71/4, E71)))</f>
+        <f t="shared" si="2"/>
         <v>46.8</v>
       </c>
       <c r="J71" t="s">
@@ -8364,7 +8615,7 @@
         <v>37</v>
       </c>
       <c r="I72" s="3">
-        <f>IF(G72="Days", E72/30, IF(G72="Years", E72*12, IF(G72="Weeks", E72/4, E72)))</f>
+        <f t="shared" si="2"/>
         <v>50.400000000000006</v>
       </c>
       <c r="J72" t="s">
@@ -8401,7 +8652,7 @@
         <v>35</v>
       </c>
       <c r="I73" s="3">
-        <f>IF(G73="Days", E73/30, IF(G73="Years", E73*12, IF(G73="Weeks", E73/4, E73)))</f>
+        <f t="shared" si="2"/>
         <v>52.800000000000004</v>
       </c>
       <c r="J73" t="s">
@@ -8438,7 +8689,7 @@
         <v>68</v>
       </c>
       <c r="I74" s="3">
-        <f>IF(G74="Days", E74/30, IF(G74="Years", E74*12, IF(G74="Weeks", E74/4, E74)))</f>
+        <f t="shared" si="2"/>
         <v>66</v>
       </c>
       <c r="J74" t="s">
@@ -8475,7 +8726,7 @@
         <v>261</v>
       </c>
       <c r="I75" s="3">
-        <f>IF(G75="Days", E75/30, IF(G75="Years", E75*12, IF(G75="Weeks", E75/4, E75)))</f>
+        <f t="shared" si="2"/>
         <v>67.199999999999989</v>
       </c>
       <c r="J75" s="2" t="s">
@@ -8512,7 +8763,7 @@
         <v>217</v>
       </c>
       <c r="I76" s="3">
-        <f>IF(G76="Days", E76/30, IF(G76="Years", E76*12, IF(G76="Weeks", E76/4, E76)))</f>
+        <f t="shared" si="2"/>
         <v>72</v>
       </c>
       <c r="J76" s="2" t="s">
@@ -8549,7 +8800,7 @@
         <v>52</v>
       </c>
       <c r="I77" s="3">
-        <f>IF(G77="Days", E77/30, IF(G77="Years", E77*12, IF(G77="Weeks", E77/4, E77)))</f>
+        <f t="shared" si="2"/>
         <v>73.199999999999989</v>
       </c>
       <c r="J77" t="s">
@@ -8586,7 +8837,7 @@
         <v>133</v>
       </c>
       <c r="I78" s="3">
-        <f>IF(G78="Days", E78/30, IF(G78="Years", E78*12, IF(G78="Weeks", E78/4, E78)))</f>
+        <f t="shared" si="2"/>
         <v>75.599999999999994</v>
       </c>
       <c r="J78" t="s">
@@ -8623,7 +8874,7 @@
         <v>38</v>
       </c>
       <c r="I79" s="3">
-        <f>IF(G79="Days", E79/30, IF(G79="Years", E79*12, IF(G79="Weeks", E79/4, E79)))</f>
+        <f t="shared" si="2"/>
         <v>76.800000000000011</v>
       </c>
       <c r="J79" t="s">
@@ -8657,7 +8908,7 @@
         <v>33</v>
       </c>
       <c r="I80" s="3">
-        <f>IF(G80="Days", E80/30, IF(G80="Years", E80*12, IF(G80="Weeks", E80/4, E80)))</f>
+        <f t="shared" si="2"/>
         <v>77.52</v>
       </c>
       <c r="J80" t="s">
@@ -8694,7 +8945,7 @@
         <v>198</v>
       </c>
       <c r="I81" s="3">
-        <f>IF(G81="Days", E81/30, IF(G81="Years", E81*12, IF(G81="Weeks", E81/4, E81)))</f>
+        <f t="shared" si="2"/>
         <v>80.400000000000006</v>
       </c>
       <c r="J81" s="2" t="s">
@@ -8731,7 +8982,7 @@
         <v>75</v>
       </c>
       <c r="I82" s="3">
-        <f>IF(G82="Days", E82/30, IF(G82="Years", E82*12, IF(G82="Weeks", E82/4, E82)))</f>
+        <f t="shared" si="2"/>
         <v>80.400000000000006</v>
       </c>
       <c r="J82" t="s">
@@ -8768,7 +9019,7 @@
         <v>291</v>
       </c>
       <c r="I83" s="3">
-        <f>IF(G83="Days", E83/30, IF(G83="Years", E83*12, IF(G83="Weeks", E83/4, E83)))</f>
+        <f t="shared" si="2"/>
         <v>86.4</v>
       </c>
       <c r="J83" s="2" t="s">
@@ -8805,7 +9056,7 @@
         <v>265</v>
       </c>
       <c r="I84" s="3">
-        <f>IF(G84="Days", E84/30, IF(G84="Years", E84*12, IF(G84="Weeks", E84/4, E84)))</f>
+        <f t="shared" si="2"/>
         <v>87</v>
       </c>
       <c r="J84" t="s">
@@ -8842,7 +9093,7 @@
         <v>78</v>
       </c>
       <c r="I85" s="3">
-        <f>IF(G85="Days", E85/30, IF(G85="Years", E85*12, IF(G85="Weeks", E85/4, E85)))</f>
+        <f t="shared" si="2"/>
         <v>96</v>
       </c>
       <c r="J85" t="s">
@@ -8879,7 +9130,7 @@
         <v>305</v>
       </c>
       <c r="I86" s="3">
-        <f>IF(G86="Days", E86/30, IF(G86="Years", E86*12, IF(G86="Weeks", E86/4, E86)))</f>
+        <f t="shared" si="2"/>
         <v>102</v>
       </c>
       <c r="J86" s="2" t="s">
@@ -8916,7 +9167,7 @@
         <v>67</v>
       </c>
       <c r="I87" s="3">
-        <f>IF(G87="Days", E87/30, IF(G87="Years", E87*12, IF(G87="Weeks", E87/4, E87)))</f>
+        <f t="shared" si="2"/>
         <v>104.39999999999999</v>
       </c>
       <c r="J87" s="2" t="s">
@@ -8953,7 +9204,7 @@
         <v>67</v>
       </c>
       <c r="I88" s="3">
-        <f>IF(G88="Days", E88/30, IF(G88="Years", E88*12, IF(G88="Weeks", E88/4, E88)))</f>
+        <f t="shared" si="2"/>
         <v>106.80000000000001</v>
       </c>
       <c r="J88" t="s">
@@ -8990,7 +9241,7 @@
         <v>201</v>
       </c>
       <c r="I89" s="3">
-        <f>IF(G89="Days", E89/30, IF(G89="Years", E89*12, IF(G89="Weeks", E89/4, E89)))</f>
+        <f t="shared" si="2"/>
         <v>128.39999999999998</v>
       </c>
       <c r="J89" s="2" t="s">
@@ -9027,7 +9278,7 @@
         <v>209</v>
       </c>
       <c r="I90" s="3">
-        <f>IF(G90="Days", E90/30, IF(G90="Years", E90*12, IF(G90="Weeks", E90/4, E90)))</f>
+        <f t="shared" si="2"/>
         <v>144</v>
       </c>
       <c r="J90" s="2" t="s">
@@ -9064,7 +9315,7 @@
         <v>216</v>
       </c>
       <c r="I91" s="3">
-        <f>IF(G91="Days", E91/30, IF(G91="Years", E91*12, IF(G91="Weeks", E91/4, E91)))</f>
+        <f t="shared" si="2"/>
         <v>151.19999999999999</v>
       </c>
       <c r="J91" t="s">
@@ -9098,7 +9349,7 @@
         <v>33</v>
       </c>
       <c r="I92" s="3">
-        <f>IF(G92="Days", E92/30, IF(G92="Years", E92*12, IF(G92="Weeks", E92/4, E92)))</f>
+        <f t="shared" si="2"/>
         <v>156</v>
       </c>
       <c r="J92" s="2" t="s">
@@ -9129,7 +9380,7 @@
         <v>33</v>
       </c>
       <c r="I93" s="3">
-        <f>IF(G93="Days", E93/30, IF(G93="Years", E93*12, IF(G93="Weeks", E93/4, E93)))</f>
+        <f t="shared" si="2"/>
         <v>192</v>
       </c>
       <c r="J93" s="2" t="s">
@@ -9166,7 +9417,7 @@
         <v>221</v>
       </c>
       <c r="I94" s="3">
-        <f>IF(G94="Days", E94/30, IF(G94="Years", E94*12, IF(G94="Weeks", E94/4, E94)))</f>
+        <f t="shared" si="2"/>
         <v>204</v>
       </c>
       <c r="J94" s="2" t="s">
@@ -9203,7 +9454,7 @@
         <v>247</v>
       </c>
       <c r="I95" s="3">
-        <f>IF(G95="Days", E95/30, IF(G95="Years", E95*12, IF(G95="Weeks", E95/4, E95)))</f>
+        <f t="shared" si="2"/>
         <v>308.39999999999998</v>
       </c>
       <c r="J95" s="2" t="s">
@@ -9280,10 +9531,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4390062C-ACD4-4ECC-BC5D-69ADAC4C3F20}">
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:AH163"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9295,9 +9546,10 @@
     <col min="5" max="5" width="30" customWidth="1"/>
     <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9320,7 +9572,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>284</v>
       </c>
@@ -9346,8 +9598,23 @@
       <c r="G2" s="2" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="AC2" t="s">
+        <v>368</v>
+      </c>
+      <c r="AD2" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>410</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>411</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>159</v>
       </c>
@@ -9372,8 +9639,18 @@
       <c r="G3" s="2" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="AE3" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="13">
+        <v>1</v>
+      </c>
+      <c r="AH3">
+        <f>AE3*12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -9398,8 +9675,19 @@
       <c r="G4" s="2" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="AE4" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="AF4" s="13">
+        <f>-(($AD$2^(1/AE4))-1)</f>
+        <v>0.99997343860111243</v>
+      </c>
+      <c r="AH4">
+        <f>AE4*12</f>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -9424,8 +9712,19 @@
       <c r="G5" s="2" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="AE5" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="AF5" s="13">
+        <f>-(($AD$2^(1/AE5))-1)</f>
+        <v>0.65132155989999985</v>
+      </c>
+      <c r="AH5">
+        <f>AE5*12</f>
+        <v>1.2000000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>157</v>
       </c>
@@ -9450,8 +9749,19 @@
       <c r="G6" s="2" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="AE6" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="AF6" s="13">
+        <f t="shared" ref="AF5:AF68" si="0">-(($AD$2^(1/AE6))-1)</f>
+        <v>0.40950999999999982</v>
+      </c>
+      <c r="AH6">
+        <f>AE6*12</f>
+        <v>2.4000000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>120</v>
       </c>
@@ -9477,8 +9787,19 @@
       <c r="G7" s="2" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="AE7" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="AF7" s="13">
+        <f t="shared" si="0"/>
+        <v>0.23156652857908377</v>
+      </c>
+      <c r="AH7">
+        <f>AE7*12</f>
+        <v>4.8000000000000007</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>283</v>
       </c>
@@ -9503,8 +9824,19 @@
       <c r="G8" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="AE8" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="AF8" s="13">
+        <f t="shared" si="0"/>
+        <v>0.16104722339245814</v>
+      </c>
+      <c r="AH8">
+        <f>AE8*12</f>
+        <v>7.1999999999999993</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>289</v>
       </c>
@@ -9529,8 +9861,19 @@
       <c r="G9" s="2" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="AE9" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="AF9" s="13">
+        <f t="shared" si="0"/>
+        <v>0.12339662821723285</v>
+      </c>
+      <c r="AH9">
+        <f>AE9*12</f>
+        <v>9.6000000000000014</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>275</v>
       </c>
@@ -9555,8 +9898,19 @@
       <c r="G10" s="2" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="AE10" s="8">
+        <v>1</v>
+      </c>
+      <c r="AF10" s="13">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="AH10">
+        <f>AE10*12</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>224</v>
       </c>
@@ -9581,8 +9935,19 @@
       <c r="G11" s="2" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="AE11" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="AF11" s="13">
+        <f t="shared" si="0"/>
+        <v>6.7830248213842315E-2</v>
+      </c>
+      <c r="AH11">
+        <f>AE11*12</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>162</v>
       </c>
@@ -9607,8 +9972,19 @@
       <c r="G12" s="2" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="AE12" s="8">
+        <v>2</v>
+      </c>
+      <c r="AF12" s="13">
+        <f t="shared" si="0"/>
+        <v>5.1316701949486232E-2</v>
+      </c>
+      <c r="AH12">
+        <f>AE12*12</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>74</v>
       </c>
@@ -9633,8 +10009,19 @@
       <c r="G13" s="2" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="AE13" s="8">
+        <v>3</v>
+      </c>
+      <c r="AF13" s="13">
+        <f t="shared" si="0"/>
+        <v>3.4510615394370281E-2</v>
+      </c>
+      <c r="AH13">
+        <f>AE13*12</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>258</v>
       </c>
@@ -9660,8 +10047,19 @@
       <c r="G14" s="2" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="AE14" s="8">
+        <v>4</v>
+      </c>
+      <c r="AF14" s="13">
+        <f t="shared" si="0"/>
+        <v>2.5996253574703254E-2</v>
+      </c>
+      <c r="AH14">
+        <f>AE14*12</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>115</v>
       </c>
@@ -9687,8 +10085,19 @@
       <c r="G15" s="2" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="AE15" s="8">
+        <v>5</v>
+      </c>
+      <c r="AF15" s="13">
+        <f t="shared" si="0"/>
+        <v>2.0851637639023202E-2</v>
+      </c>
+      <c r="AH15">
+        <f>AE15*12</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>254</v>
       </c>
@@ -9713,8 +10122,19 @@
       <c r="G16" s="2" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="AE16" s="8">
+        <v>6</v>
+      </c>
+      <c r="AF16" s="13">
+        <f t="shared" si="0"/>
+        <v>1.7406806147310161E-2</v>
+      </c>
+      <c r="AH16">
+        <f>AE16*12</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>145</v>
       </c>
@@ -9739,8 +10159,19 @@
       <c r="G17" s="2" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="AE17" s="8">
+        <v>7</v>
+      </c>
+      <c r="AF17" s="13">
+        <f t="shared" si="0"/>
+        <v>1.4938794558884472E-2</v>
+      </c>
+      <c r="AH17">
+        <f>AE17*12</f>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>105</v>
       </c>
@@ -9765,8 +10196,19 @@
       <c r="G18" s="2" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="AE18" s="8">
+        <v>8</v>
+      </c>
+      <c r="AF18" s="13">
+        <f t="shared" si="0"/>
+        <v>1.3083718633998487E-2</v>
+      </c>
+      <c r="AH18">
+        <f>AE18*12</f>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>180</v>
       </c>
@@ -9791,8 +10233,19 @@
       <c r="G19" s="2" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="AE19" s="8">
+        <v>9</v>
+      </c>
+      <c r="AF19" s="13">
+        <f t="shared" si="0"/>
+        <v>1.1638466884251741E-2</v>
+      </c>
+      <c r="AH19">
+        <f>AE19*12</f>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>192</v>
       </c>
@@ -9817,8 +10270,19 @@
       <c r="G20" s="2" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="AE20" s="8">
+        <v>10</v>
+      </c>
+      <c r="AF20" s="13">
+        <f t="shared" si="0"/>
+        <v>1.0480741793785553E-2</v>
+      </c>
+      <c r="AH20">
+        <f>AE20*12</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>303</v>
       </c>
@@ -9843,8 +10307,19 @@
       <c r="G21" s="2" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="AE21" s="8">
+        <v>11</v>
+      </c>
+      <c r="AF21" s="13">
+        <f t="shared" si="0"/>
+        <v>9.5325035687154891E-3</v>
+      </c>
+      <c r="AH21">
+        <f>AE21*12</f>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>131</v>
       </c>
@@ -9869,8 +10344,18 @@
       <c r="G22" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="AE22" s="8">
+        <v>12</v>
+      </c>
+      <c r="AF22" s="13">
+        <f t="shared" si="0"/>
+        <v>8.7416109546967213E-3</v>
+      </c>
+      <c r="AH22">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>144</v>
       </c>
@@ -9895,8 +10380,10 @@
       <c r="G23" s="2" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="AE23" s="8"/>
+      <c r="AF23" s="13"/>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>195</v>
       </c>
@@ -9921,8 +10408,10 @@
       <c r="G24" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="AE24" s="8"/>
+      <c r="AF24" s="13"/>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>235</v>
       </c>
@@ -9947,8 +10436,10 @@
       <c r="G25" s="2" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="AE25" s="8"/>
+      <c r="AF25" s="13"/>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>264</v>
       </c>
@@ -9973,8 +10464,10 @@
       <c r="G26" s="2" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="AE26" s="8"/>
+      <c r="AF26" s="13"/>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>238</v>
       </c>
@@ -10000,8 +10493,10 @@
       <c r="G27" s="2" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="AE27" s="8"/>
+      <c r="AF27" s="13"/>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>199</v>
       </c>
@@ -10026,8 +10521,10 @@
       <c r="G28" s="2" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="AE28" s="8"/>
+      <c r="AF28" s="13"/>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>81</v>
       </c>
@@ -10053,8 +10550,10 @@
       <c r="G29" s="2" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="AE29" s="8"/>
+      <c r="AF29" s="13"/>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>77</v>
       </c>
@@ -10079,8 +10578,10 @@
       <c r="G30" s="2" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="AE30" s="8"/>
+      <c r="AF30" s="13"/>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>288</v>
       </c>
@@ -10105,8 +10606,10 @@
       <c r="G31" s="2" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="AE31" s="8"/>
+      <c r="AF31" s="13"/>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>304</v>
       </c>
@@ -10131,8 +10634,10 @@
       <c r="G32" s="2" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="AE32" s="8"/>
+      <c r="AF32" s="13"/>
+    </row>
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>124</v>
       </c>
@@ -10157,8 +10662,10 @@
       <c r="G33" s="2" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="AE33" s="8"/>
+      <c r="AF33" s="13"/>
+    </row>
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>280</v>
       </c>
@@ -10183,8 +10690,10 @@
       <c r="G34" s="2" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="AE34" s="8"/>
+      <c r="AF34" s="13"/>
+    </row>
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>186</v>
       </c>
@@ -10210,8 +10719,10 @@
       <c r="G35" s="2" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="AE35" s="8"/>
+      <c r="AF35" s="13"/>
+    </row>
+    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>200</v>
       </c>
@@ -10236,8 +10747,10 @@
       <c r="G36" s="2" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="AE36" s="8"/>
+      <c r="AF36" s="13"/>
+    </row>
+    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>66</v>
       </c>
@@ -10262,8 +10775,10 @@
       <c r="G37" s="2" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="AE37" s="8"/>
+      <c r="AF37" s="13"/>
+    </row>
+    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>262</v>
       </c>
@@ -10288,8 +10803,10 @@
       <c r="G38" s="2" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="AE38" s="8"/>
+      <c r="AF38" s="13"/>
+    </row>
+    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>101</v>
       </c>
@@ -10314,8 +10831,10 @@
       <c r="G39" s="2" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="AE39" s="8"/>
+      <c r="AF39" s="13"/>
+    </row>
+    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>183</v>
       </c>
@@ -10340,8 +10859,10 @@
       <c r="G40" s="2" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="AE40" s="8"/>
+      <c r="AF40" s="13"/>
+    </row>
+    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>72</v>
       </c>
@@ -10366,8 +10887,10 @@
       <c r="G41" s="2" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="AE41" s="8"/>
+      <c r="AF41" s="13"/>
+    </row>
+    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>137</v>
       </c>
@@ -10392,8 +10915,10 @@
       <c r="G42" s="2" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="AE42" s="8"/>
+      <c r="AF42" s="13"/>
+    </row>
+    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>48</v>
       </c>
@@ -10418,8 +10943,10 @@
       <c r="G43" s="2" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="AE43" s="8"/>
+      <c r="AF43" s="13"/>
+    </row>
+    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>242</v>
       </c>
@@ -10444,8 +10971,10 @@
       <c r="G44" s="2" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="AE44" s="8"/>
+      <c r="AF44" s="13"/>
+    </row>
+    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>227</v>
       </c>
@@ -10470,8 +10999,10 @@
       <c r="G45" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="AE45" s="8"/>
+      <c r="AF45" s="13"/>
+    </row>
+    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>143</v>
       </c>
@@ -10496,8 +11027,10 @@
       <c r="G46" s="2" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="AE46" s="8"/>
+      <c r="AF46" s="13"/>
+    </row>
+    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>271</v>
       </c>
@@ -10523,8 +11056,10 @@
       <c r="G47" s="2" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="AE47" s="8"/>
+      <c r="AF47" s="13"/>
+    </row>
+    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>296</v>
       </c>
@@ -10549,8 +11084,10 @@
       <c r="G48" s="2" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="AE48" s="8"/>
+      <c r="AF48" s="13"/>
+    </row>
+    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -10575,8 +11112,10 @@
       <c r="G49" s="2" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="AE49" s="8"/>
+      <c r="AF49" s="13"/>
+    </row>
+    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>204</v>
       </c>
@@ -10602,8 +11141,10 @@
       <c r="G50" s="2" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="AE50" s="8"/>
+      <c r="AF50" s="13"/>
+    </row>
+    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>95</v>
       </c>
@@ -10628,8 +11169,10 @@
       <c r="G51" s="2" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="AE51" s="8"/>
+      <c r="AF51" s="13"/>
+    </row>
+    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>55</v>
       </c>
@@ -10654,8 +11197,10 @@
       <c r="G52" s="2" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="AE52" s="8"/>
+      <c r="AF52" s="13"/>
+    </row>
+    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>49</v>
       </c>
@@ -10680,6 +11225,448 @@
       <c r="G53" s="2" t="s">
         <v>336</v>
       </c>
+      <c r="AE53" s="8"/>
+      <c r="AF53" s="13"/>
+    </row>
+    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE54" s="8"/>
+      <c r="AF54" s="13"/>
+    </row>
+    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE55" s="8"/>
+      <c r="AF55" s="13"/>
+    </row>
+    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE56" s="8"/>
+      <c r="AF56" s="13"/>
+    </row>
+    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE57" s="8"/>
+      <c r="AF57" s="13"/>
+    </row>
+    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE58" s="8"/>
+      <c r="AF58" s="13"/>
+    </row>
+    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE59" s="8"/>
+      <c r="AF59" s="13"/>
+    </row>
+    <row r="60" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE60" s="8"/>
+      <c r="AF60" s="13"/>
+    </row>
+    <row r="61" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE61" s="8"/>
+      <c r="AF61" s="13"/>
+    </row>
+    <row r="62" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE62" s="8"/>
+      <c r="AF62" s="13"/>
+    </row>
+    <row r="63" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE63" s="8"/>
+      <c r="AF63" s="13"/>
+    </row>
+    <row r="64" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE64" s="8"/>
+      <c r="AF64" s="13"/>
+    </row>
+    <row r="65" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE65" s="8"/>
+      <c r="AF65" s="13"/>
+    </row>
+    <row r="66" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE66" s="8"/>
+      <c r="AF66" s="13"/>
+    </row>
+    <row r="67" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE67" s="8"/>
+      <c r="AF67" s="13"/>
+    </row>
+    <row r="68" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE68" s="8"/>
+      <c r="AF68" s="13"/>
+    </row>
+    <row r="69" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE69" s="8"/>
+      <c r="AF69" s="13"/>
+    </row>
+    <row r="70" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE70" s="8"/>
+      <c r="AF70" s="13"/>
+    </row>
+    <row r="71" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE71" s="8"/>
+      <c r="AF71" s="13"/>
+    </row>
+    <row r="72" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE72" s="8"/>
+      <c r="AF72" s="13"/>
+    </row>
+    <row r="73" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE73" s="8"/>
+      <c r="AF73" s="13"/>
+    </row>
+    <row r="74" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE74" s="8"/>
+      <c r="AF74" s="13"/>
+    </row>
+    <row r="75" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE75" s="8"/>
+      <c r="AF75" s="13"/>
+    </row>
+    <row r="76" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE76" s="8"/>
+      <c r="AF76" s="13"/>
+    </row>
+    <row r="77" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE77" s="8"/>
+      <c r="AF77" s="13"/>
+    </row>
+    <row r="78" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE78" s="8"/>
+      <c r="AF78" s="13"/>
+    </row>
+    <row r="79" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE79" s="8"/>
+      <c r="AF79" s="13"/>
+    </row>
+    <row r="80" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE80" s="8"/>
+      <c r="AF80" s="13"/>
+    </row>
+    <row r="81" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE81" s="8"/>
+      <c r="AF81" s="13"/>
+    </row>
+    <row r="82" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE82" s="8"/>
+      <c r="AF82" s="13"/>
+    </row>
+    <row r="83" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE83" s="8"/>
+      <c r="AF83" s="13"/>
+    </row>
+    <row r="84" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE84" s="8"/>
+      <c r="AF84" s="13"/>
+    </row>
+    <row r="85" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE85" s="8"/>
+      <c r="AF85" s="13"/>
+    </row>
+    <row r="86" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE86" s="8"/>
+      <c r="AF86" s="13"/>
+    </row>
+    <row r="87" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE87" s="8"/>
+      <c r="AF87" s="13"/>
+    </row>
+    <row r="88" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE88" s="8"/>
+      <c r="AF88" s="13"/>
+    </row>
+    <row r="89" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE89" s="8"/>
+      <c r="AF89" s="13"/>
+    </row>
+    <row r="90" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE90" s="8"/>
+      <c r="AF90" s="13"/>
+    </row>
+    <row r="91" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE91" s="8"/>
+      <c r="AF91" s="13"/>
+    </row>
+    <row r="92" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE92" s="8"/>
+      <c r="AF92" s="13"/>
+    </row>
+    <row r="93" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE93" s="8"/>
+      <c r="AF93" s="13"/>
+    </row>
+    <row r="94" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE94" s="8"/>
+      <c r="AF94" s="13"/>
+    </row>
+    <row r="95" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE95" s="8"/>
+      <c r="AF95" s="13"/>
+    </row>
+    <row r="96" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE96" s="8"/>
+      <c r="AF96" s="13"/>
+    </row>
+    <row r="97" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE97" s="8"/>
+      <c r="AF97" s="13"/>
+    </row>
+    <row r="98" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE98" s="8"/>
+      <c r="AF98" s="13"/>
+    </row>
+    <row r="99" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE99" s="8"/>
+      <c r="AF99" s="13"/>
+    </row>
+    <row r="100" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE100" s="8"/>
+      <c r="AF100" s="13"/>
+    </row>
+    <row r="101" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE101" s="8"/>
+      <c r="AF101" s="13"/>
+    </row>
+    <row r="102" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE102" s="8"/>
+      <c r="AF102" s="13"/>
+    </row>
+    <row r="103" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE103" s="8"/>
+      <c r="AF103" s="13"/>
+    </row>
+    <row r="104" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE104" s="8"/>
+      <c r="AF104" s="13"/>
+    </row>
+    <row r="105" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE105" s="8"/>
+      <c r="AF105" s="13"/>
+    </row>
+    <row r="106" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE106" s="8"/>
+      <c r="AF106" s="13"/>
+    </row>
+    <row r="107" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE107" s="8"/>
+      <c r="AF107" s="13"/>
+    </row>
+    <row r="108" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE108" s="8"/>
+      <c r="AF108" s="13"/>
+    </row>
+    <row r="109" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE109" s="8"/>
+      <c r="AF109" s="13"/>
+    </row>
+    <row r="110" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE110" s="8"/>
+      <c r="AF110" s="13"/>
+    </row>
+    <row r="111" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE111" s="8"/>
+      <c r="AF111" s="13"/>
+    </row>
+    <row r="112" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE112" s="8"/>
+      <c r="AF112" s="13"/>
+    </row>
+    <row r="113" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE113" s="8"/>
+      <c r="AF113" s="13"/>
+    </row>
+    <row r="114" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE114" s="8"/>
+      <c r="AF114" s="13"/>
+    </row>
+    <row r="115" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE115" s="8"/>
+      <c r="AF115" s="13"/>
+    </row>
+    <row r="116" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE116" s="8"/>
+      <c r="AF116" s="13"/>
+    </row>
+    <row r="117" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE117" s="8"/>
+      <c r="AF117" s="13"/>
+    </row>
+    <row r="118" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE118" s="8"/>
+      <c r="AF118" s="13"/>
+    </row>
+    <row r="119" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE119" s="8"/>
+      <c r="AF119" s="13"/>
+    </row>
+    <row r="120" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE120" s="8"/>
+      <c r="AF120" s="13"/>
+    </row>
+    <row r="121" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE121" s="8"/>
+      <c r="AF121" s="13"/>
+    </row>
+    <row r="122" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE122" s="8"/>
+      <c r="AF122" s="13"/>
+    </row>
+    <row r="123" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE123" s="8"/>
+      <c r="AF123" s="13"/>
+    </row>
+    <row r="124" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE124" s="8"/>
+      <c r="AF124" s="13"/>
+    </row>
+    <row r="125" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE125" s="8"/>
+      <c r="AF125" s="13"/>
+    </row>
+    <row r="126" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE126" s="8"/>
+      <c r="AF126" s="13"/>
+    </row>
+    <row r="127" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE127" s="8"/>
+      <c r="AF127" s="13"/>
+    </row>
+    <row r="128" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE128" s="8"/>
+      <c r="AF128" s="13"/>
+    </row>
+    <row r="129" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE129" s="8"/>
+      <c r="AF129" s="13"/>
+    </row>
+    <row r="130" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE130" s="8"/>
+      <c r="AF130" s="13"/>
+    </row>
+    <row r="131" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE131" s="8"/>
+      <c r="AF131" s="13"/>
+    </row>
+    <row r="132" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE132" s="8"/>
+      <c r="AF132" s="13"/>
+    </row>
+    <row r="133" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE133" s="8"/>
+      <c r="AF133" s="13"/>
+    </row>
+    <row r="134" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE134" s="8"/>
+      <c r="AF134" s="13"/>
+    </row>
+    <row r="135" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE135" s="8"/>
+      <c r="AF135" s="13"/>
+    </row>
+    <row r="136" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE136" s="8"/>
+      <c r="AF136" s="13"/>
+    </row>
+    <row r="137" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE137" s="8"/>
+      <c r="AF137" s="13"/>
+    </row>
+    <row r="138" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE138" s="8"/>
+      <c r="AF138" s="13"/>
+    </row>
+    <row r="139" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE139" s="8"/>
+      <c r="AF139" s="13"/>
+    </row>
+    <row r="140" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE140" s="8"/>
+      <c r="AF140" s="13"/>
+    </row>
+    <row r="141" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE141" s="8"/>
+      <c r="AF141" s="13"/>
+    </row>
+    <row r="142" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE142" s="8"/>
+      <c r="AF142" s="13"/>
+    </row>
+    <row r="143" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE143" s="8"/>
+      <c r="AF143" s="13"/>
+    </row>
+    <row r="144" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE144" s="8"/>
+      <c r="AF144" s="13"/>
+    </row>
+    <row r="145" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE145" s="8"/>
+      <c r="AF145" s="13"/>
+    </row>
+    <row r="146" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE146" s="8"/>
+      <c r="AF146" s="13"/>
+    </row>
+    <row r="147" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE147" s="8"/>
+      <c r="AF147" s="13"/>
+    </row>
+    <row r="148" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE148" s="8"/>
+      <c r="AF148" s="13"/>
+    </row>
+    <row r="149" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE149" s="8"/>
+      <c r="AF149" s="13"/>
+    </row>
+    <row r="150" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE150" s="8"/>
+      <c r="AF150" s="13"/>
+    </row>
+    <row r="151" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE151" s="8"/>
+      <c r="AF151" s="13"/>
+    </row>
+    <row r="152" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE152" s="8"/>
+      <c r="AF152" s="13"/>
+    </row>
+    <row r="153" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE153" s="8"/>
+      <c r="AF153" s="13"/>
+    </row>
+    <row r="154" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE154" s="8"/>
+      <c r="AF154" s="13"/>
+    </row>
+    <row r="155" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE155" s="8"/>
+      <c r="AF155" s="13"/>
+    </row>
+    <row r="156" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE156" s="8"/>
+      <c r="AF156" s="13"/>
+    </row>
+    <row r="157" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE157" s="8"/>
+      <c r="AF157" s="13"/>
+    </row>
+    <row r="158" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE158" s="8"/>
+      <c r="AF158" s="13"/>
+    </row>
+    <row r="159" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE159" s="8"/>
+      <c r="AF159" s="13"/>
+    </row>
+    <row r="160" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE160" s="8"/>
+      <c r="AF160" s="13"/>
+    </row>
+    <row r="161" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE161" s="8"/>
+      <c r="AF161" s="13"/>
+    </row>
+    <row r="162" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE162" s="8"/>
+      <c r="AF162" s="13"/>
+    </row>
+    <row r="163" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE163" s="8"/>
+      <c r="AF163" s="13"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -10745,7 +11732,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB1F13E5-5D80-43CB-BF4E-6BFBE4207054}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -10791,7 +11778,7 @@
       <c r="D2" t="s">
         <v>363</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>362</v>
       </c>
     </row>
@@ -10864,7 +11851,7 @@
       <c r="D7" t="s">
         <v>390</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="2" t="s">
         <v>389</v>
       </c>
     </row>
@@ -10949,7 +11936,7 @@
       <c r="D12" t="s">
         <v>398</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="2" t="s">
         <v>397</v>
       </c>
     </row>
@@ -11060,10 +12047,13 @@
     <hyperlink ref="F3" r:id="rId1" xr:uid="{B420FB17-4361-45D7-B47B-0C7D07D3AADB}"/>
     <hyperlink ref="F4" r:id="rId2" xr:uid="{0F4711A9-1219-4AE6-B2AC-DB3CB1F973EF}"/>
     <hyperlink ref="F6" r:id="rId3" xr:uid="{CF967FC0-D853-4ED3-A16E-AEAEDFD5BCAD}"/>
+    <hyperlink ref="F2" r:id="rId4" xr:uid="{918CA7CB-07CE-4174-BBAE-FA3CB096D24F}"/>
+    <hyperlink ref="F7" r:id="rId5" xr:uid="{463DF5FB-CA50-4020-8673-655B39857AF3}"/>
+    <hyperlink ref="F12" r:id="rId6" xr:uid="{53F4BCF1-461B-46C0-BB41-9B6C790FBF8D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
@@ -11155,8 +12145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F6809CF-5461-4978-8AC5-CA059412643D}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C14"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/assets/Dx stats.xlsx
+++ b/assets/Dx stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\atelfo.github.io\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D822BF-D3E6-4D9F-B585-AAF29000DCA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CFD43B8-B5C0-4836-83AE-D4D4EDC9F142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="2280" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{81DE6EE8-0027-492D-AF58-69F03109B8D0}"/>
+    <workbookView xWindow="-28920" yWindow="2280" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{81DE6EE8-0027-492D-AF58-69F03109B8D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Average time to Dx" sheetId="1" r:id="rId1"/>
@@ -113,9 +113,6 @@
     <t>https://pubmed.ncbi.nlm.nih.gov/26807846/</t>
   </si>
   <si>
-    <t>Young-onset (&lt;65) fronto-temporal dementia</t>
-  </si>
-  <si>
     <t>Young-onset (&lt;65) Alzheimers</t>
   </si>
   <si>
@@ -167,9 +164,6 @@
     <t>Late-onset (&gt;65) Alzheimers</t>
   </si>
   <si>
-    <t>Late-onset (&gt;65) fronto-temporal dementia</t>
-  </si>
-  <si>
     <t>Late-onset (&gt;65) vascular and mixed dementia</t>
   </si>
   <si>
@@ -188,9 +182,6 @@
     <t>Alzheimers</t>
   </si>
   <si>
-    <t>Fronto-temporal dementia</t>
-  </si>
-  <si>
     <t>Vascular and mixed dementia</t>
   </si>
   <si>
@@ -1278,6 +1269,15 @@
   </si>
   <si>
     <t>in months</t>
+  </si>
+  <si>
+    <t>Late-onset (&gt;65) frontotemporal dementia</t>
+  </si>
+  <si>
+    <t>Young-onset (&lt;65) frontotemporal dementia</t>
+  </si>
+  <si>
+    <t>frontotemporal dementia</t>
   </si>
 </sst>
 </file>
@@ -1286,7 +1286,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="0.0000%"/>
+    <numFmt numFmtId="165" formatCode="0.0000%"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -1396,7 +1396,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2651,7 +2651,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6C4B76A4-C4EC-4DB9-9E23-139D5FFF84BB}" type="CELLRANGE">
+                    <a:fld id="{78C44449-D151-4D90-B494-0036CE94C875}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3004,7 +3004,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{10F8B474-8EA2-4BEF-9016-355EBF8C2EE9}" type="CELLRANGE">
+                    <a:fld id="{1DD44A35-EF73-4726-A8B5-009617605439}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3048,7 +3048,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EA9C7542-62B0-4A54-9307-DDB32433361F}" type="CELLRANGE">
+                    <a:fld id="{D543C881-A638-4179-A315-A7B7850778E9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3136,7 +3136,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{ABF079DE-47C0-4955-9D52-D4E9B113BFE7}" type="CELLRANGE">
+                    <a:fld id="{ECB3723B-9A4C-49E4-AA82-782F03A0683D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3184,7 +3184,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{585B8082-DE19-434A-A4B7-1280CD2B5F46}" type="CELLRANGE">
+                    <a:fld id="{64712AD9-DCD6-407F-9C48-E9D99891D3D2}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3217,7 +3217,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1CD00530-0906-4C8C-9005-7D7C8D80B917}" type="CELLRANGE">
+                    <a:fld id="{A048EF93-D7F5-48D6-9178-66A49CF54537}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3250,7 +3250,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F4326E70-2503-425A-A902-36C3CCBA0EA8}" type="CELLRANGE">
+                    <a:fld id="{99035183-55F5-452D-9047-207816FB2925}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3288,7 +3288,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FB1CCE45-66C6-4963-9899-A4FAB6494AC6}" type="CELLRANGE">
+                    <a:fld id="{EF2B5F40-AF9D-4427-B6DD-7C1ADB9AF294}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3332,7 +3332,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DF531A20-A14E-4A6D-9382-B203DBF5B91F}" type="CELLRANGE">
+                    <a:fld id="{FE4F7092-D709-4962-9ACE-3746F817A457}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3380,7 +3380,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3ED5CE5B-6FEB-4570-918D-290275205B5D}" type="CELLRANGE">
+                    <a:fld id="{F265B1F7-0E9B-476C-A1A0-980E019E3574}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3413,7 +3413,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D1727B3A-8AF6-45F3-A4F2-CF7A64A7211F}" type="CELLRANGE">
+                    <a:fld id="{CBA049D0-C0C0-45F6-A46F-34C1FAF7EF3F}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3446,7 +3446,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7E945B53-F389-4020-AA93-AA7C56626472}" type="CELLRANGE">
+                    <a:fld id="{8FF58927-AB7A-47DE-94FF-95026AF4E8E5}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3479,7 +3479,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D0561D9B-8EFC-4B9D-89B8-A2F7D7EF7263}" type="CELLRANGE">
+                    <a:fld id="{085F5F19-62D4-4C70-A09E-62621F2E774D}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4078,7 +4078,7 @@
                     <c:v>Amyotrophic lateral sclerosis</c:v>
                   </c:pt>
                   <c:pt idx="51">
-                    <c:v>Fronto-temporal dementia</c:v>
+                    <c:v>frontotemporal dementia</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -6037,8 +6037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CA5513E-26DC-4C85-8B8F-1046086877AA}">
   <dimension ref="A1:L95"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6060,7 +6060,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -6069,7 +6069,7 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>12</v>
@@ -6078,10 +6078,10 @@
         <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>2</v>
@@ -6090,21 +6090,21 @@
         <v>1</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E2">
         <f>2/3</f>
@@ -6121,7 +6121,7 @@
         <v>2.222222222222222E-2</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="L2" t="str">
         <f>IF(OR(Table1[[#This Row],[Therapy area]]="Neurology", Table1[[#This Row],[Therapy area]]="Oncology", Table1[[#This Row],[Therapy area]]="Rheumatology"), Table1[[#This Row],[Therapy area]], "Other")</f>
@@ -6133,7 +6133,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -6167,7 +6167,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
@@ -6201,7 +6201,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -6236,7 +6236,7 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
@@ -6267,16 +6267,16 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E7">
         <v>5.3</v>
@@ -6285,17 +6285,17 @@
         <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I7" s="3">
         <f t="shared" si="0"/>
         <v>1.325</v>
       </c>
       <c r="J7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="L7" t="str">
         <f>IF(OR(Table1[[#This Row],[Therapy area]]="Neurology", Table1[[#This Row],[Therapy area]]="Oncology", Table1[[#This Row],[Therapy area]]="Rheumatology"), Table1[[#This Row],[Therapy area]], "Other")</f>
@@ -6304,16 +6304,16 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B8" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C8" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D8" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E8">
         <v>1.4</v>
@@ -6322,17 +6322,17 @@
         <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H8" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="I8" s="3">
         <f t="shared" si="0"/>
         <v>1.4</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="L8" t="str">
         <f>IF(OR(Table1[[#This Row],[Therapy area]]="Neurology", Table1[[#This Row],[Therapy area]]="Oncology", Table1[[#This Row],[Therapy area]]="Rheumatology"), Table1[[#This Row],[Therapy area]], "Other")</f>
@@ -6341,16 +6341,16 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E9">
         <v>42</v>
@@ -6362,14 +6362,14 @@
         <v>16</v>
       </c>
       <c r="H9" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I9" s="3">
         <f t="shared" si="0"/>
         <v>1.4</v>
       </c>
       <c r="J9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L9" t="str">
         <f>IF(OR(Table1[[#This Row],[Therapy area]]="Neurology", Table1[[#This Row],[Therapy area]]="Oncology", Table1[[#This Row],[Therapy area]]="Rheumatology"), Table1[[#This Row],[Therapy area]], "Other")</f>
@@ -6378,16 +6378,16 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>268</v>
+      </c>
+      <c r="B10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" t="s">
         <v>271</v>
-      </c>
-      <c r="B10" t="s">
-        <v>87</v>
-      </c>
-      <c r="C10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" t="s">
-        <v>274</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -6396,17 +6396,17 @@
         <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H10" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="I10" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="L10" t="str">
         <f>IF(OR(Table1[[#This Row],[Therapy area]]="Neurology", Table1[[#This Row],[Therapy area]]="Oncology", Table1[[#This Row],[Therapy area]]="Rheumatology"), Table1[[#This Row],[Therapy area]], "Other")</f>
@@ -6415,16 +6415,16 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B11" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C11" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D11" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E11">
         <v>64.2</v>
@@ -6440,7 +6440,7 @@
         <v>2.14</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="L11" t="str">
         <f>IF(OR(Table1[[#This Row],[Therapy area]]="Neurology", Table1[[#This Row],[Therapy area]]="Oncology", Table1[[#This Row],[Therapy area]]="Rheumatology"), Table1[[#This Row],[Therapy area]], "Other")</f>
@@ -6449,16 +6449,16 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" t="s">
         <v>115</v>
-      </c>
-      <c r="B12" t="s">
-        <v>90</v>
-      </c>
-      <c r="C12" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" t="s">
-        <v>118</v>
       </c>
       <c r="E12">
         <v>9</v>
@@ -6467,17 +6467,17 @@
         <v>14</v>
       </c>
       <c r="G12" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H12" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="I12" s="3">
         <f t="shared" si="0"/>
         <v>2.25</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="L12" t="str">
         <f>IF(OR(Table1[[#This Row],[Therapy area]]="Neurology", Table1[[#This Row],[Therapy area]]="Oncology", Table1[[#This Row],[Therapy area]]="Rheumatology"), Table1[[#This Row],[Therapy area]], "Other")</f>
@@ -6486,16 +6486,16 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C13" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D13" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E13">
         <v>74</v>
@@ -6507,14 +6507,14 @@
         <v>16</v>
       </c>
       <c r="H13" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I13" s="3">
         <f t="shared" si="0"/>
         <v>2.4666666666666668</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="L13" t="str">
         <f>IF(OR(Table1[[#This Row],[Therapy area]]="Neurology", Table1[[#This Row],[Therapy area]]="Oncology", Table1[[#This Row],[Therapy area]]="Rheumatology"), Table1[[#This Row],[Therapy area]], "Other")</f>
@@ -6523,16 +6523,16 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>201</v>
+      </c>
+      <c r="B14" t="s">
+        <v>304</v>
+      </c>
+      <c r="C14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D14" t="s">
         <v>204</v>
-      </c>
-      <c r="B14" t="s">
-        <v>307</v>
-      </c>
-      <c r="C14" t="s">
-        <v>206</v>
-      </c>
-      <c r="D14" t="s">
-        <v>207</v>
       </c>
       <c r="E14">
         <v>2.5</v>
@@ -6541,17 +6541,17 @@
         <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H14" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="I14" s="3">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L14" t="str">
         <f>IF(OR(Table1[[#This Row],[Therapy area]]="Neurology", Table1[[#This Row],[Therapy area]]="Oncology", Table1[[#This Row],[Therapy area]]="Rheumatology"), Table1[[#This Row],[Therapy area]], "Other")</f>
@@ -6560,10 +6560,10 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B15" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
@@ -6578,7 +6578,7 @@
         <v>16</v>
       </c>
       <c r="H15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I15" s="3">
         <f t="shared" si="0"/>
@@ -6594,16 +6594,16 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B16" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C16" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D16" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -6612,17 +6612,17 @@
         <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H16" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="I16" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L16" t="str">
         <f>IF(OR(Table1[[#This Row],[Therapy area]]="Neurology", Table1[[#This Row],[Therapy area]]="Oncology", Table1[[#This Row],[Therapy area]]="Rheumatology"), Table1[[#This Row],[Therapy area]], "Other")</f>
@@ -6631,16 +6631,16 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B17" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C17" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D17" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E17">
         <v>99</v>
@@ -6656,7 +6656,7 @@
         <v>3.3</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="L17" t="str">
         <f>IF(OR(Table1[[#This Row],[Therapy area]]="Neurology", Table1[[#This Row],[Therapy area]]="Oncology", Table1[[#This Row],[Therapy area]]="Rheumatology"), Table1[[#This Row],[Therapy area]], "Other")</f>
@@ -6665,16 +6665,16 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B18" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C18" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D18" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E18">
         <v>3.5</v>
@@ -6683,14 +6683,14 @@
         <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I18" s="3">
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="L18" t="str">
         <f>IF(OR(Table1[[#This Row],[Therapy area]]="Neurology", Table1[[#This Row],[Therapy area]]="Oncology", Table1[[#This Row],[Therapy area]]="Rheumatology"), Table1[[#This Row],[Therapy area]], "Other")</f>
@@ -6699,16 +6699,16 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>140</v>
+      </c>
+      <c r="B19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" t="s">
         <v>143</v>
-      </c>
-      <c r="B19" t="s">
-        <v>89</v>
-      </c>
-      <c r="C19" t="s">
-        <v>70</v>
-      </c>
-      <c r="D19" t="s">
-        <v>146</v>
       </c>
       <c r="E19">
         <v>3.6</v>
@@ -6717,14 +6717,14 @@
         <v>14</v>
       </c>
       <c r="G19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I19" s="3">
         <f t="shared" si="0"/>
         <v>3.6</v>
       </c>
       <c r="J19" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L19" t="str">
         <f>IF(OR(Table1[[#This Row],[Therapy area]]="Neurology", Table1[[#This Row],[Therapy area]]="Oncology", Table1[[#This Row],[Therapy area]]="Rheumatology"), Table1[[#This Row],[Therapy area]], "Other")</f>
@@ -6733,16 +6733,16 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C20" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D20" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E20">
         <v>4</v>
@@ -6758,7 +6758,7 @@
         <v>4</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="L20" t="str">
         <f>IF(OR(Table1[[#This Row],[Therapy area]]="Neurology", Table1[[#This Row],[Therapy area]]="Oncology", Table1[[#This Row],[Therapy area]]="Rheumatology"), Table1[[#This Row],[Therapy area]], "Other")</f>
@@ -6767,16 +6767,16 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B21" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C21" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D21" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E21">
         <v>4</v>
@@ -6785,17 +6785,17 @@
         <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H21" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I21" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="L21" t="str">
         <f>IF(OR(Table1[[#This Row],[Therapy area]]="Neurology", Table1[[#This Row],[Therapy area]]="Oncology", Table1[[#This Row],[Therapy area]]="Rheumatology"), Table1[[#This Row],[Therapy area]], "Other")</f>
@@ -6804,13 +6804,13 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B22" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C22" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D22">
         <v>1988</v>
@@ -6829,7 +6829,7 @@
         <v>4.8</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="L22" t="str">
         <f>IF(OR(Table1[[#This Row],[Therapy area]]="Neurology", Table1[[#This Row],[Therapy area]]="Oncology", Table1[[#This Row],[Therapy area]]="Rheumatology"), Table1[[#This Row],[Therapy area]], "Other")</f>
@@ -6838,16 +6838,16 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B23" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C23" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D23" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E23">
         <v>5</v>
@@ -6856,14 +6856,14 @@
         <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I23" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="L23" t="str">
         <f>IF(OR(Table1[[#This Row],[Therapy area]]="Neurology", Table1[[#This Row],[Therapy area]]="Oncology", Table1[[#This Row],[Therapy area]]="Rheumatology"), Table1[[#This Row],[Therapy area]], "Other")</f>
@@ -6872,16 +6872,16 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B24" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C24" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D24" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E24">
         <v>152</v>
@@ -6897,7 +6897,7 @@
         <v>5.0666666666666664</v>
       </c>
       <c r="J24" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="L24" t="str">
         <f>IF(OR(Table1[[#This Row],[Therapy area]]="Neurology", Table1[[#This Row],[Therapy area]]="Oncology", Table1[[#This Row],[Therapy area]]="Rheumatology"), Table1[[#This Row],[Therapy area]], "Other")</f>
@@ -6906,16 +6906,16 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B25" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C25" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D25" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E25">
         <v>6</v>
@@ -6924,14 +6924,14 @@
         <v>14</v>
       </c>
       <c r="G25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I25" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="L25" t="str">
         <f>IF(OR(Table1[[#This Row],[Therapy area]]="Neurology", Table1[[#This Row],[Therapy area]]="Oncology", Table1[[#This Row],[Therapy area]]="Rheumatology"), Table1[[#This Row],[Therapy area]], "Other")</f>
@@ -6940,16 +6940,16 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B26" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C26" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D26" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E26">
         <v>6</v>
@@ -6958,17 +6958,17 @@
         <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H26" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I26" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L26" t="str">
         <f>IF(OR(Table1[[#This Row],[Therapy area]]="Neurology", Table1[[#This Row],[Therapy area]]="Oncology", Table1[[#This Row],[Therapy area]]="Rheumatology"), Table1[[#This Row],[Therapy area]], "Other")</f>
@@ -6977,16 +6977,16 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B27" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C27" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D27" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E27">
         <v>6.1</v>
@@ -6995,14 +6995,14 @@
         <v>14</v>
       </c>
       <c r="G27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I27" s="3">
         <f t="shared" si="0"/>
         <v>6.1</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="L27" t="str">
         <f>IF(OR(Table1[[#This Row],[Therapy area]]="Neurology", Table1[[#This Row],[Therapy area]]="Oncology", Table1[[#This Row],[Therapy area]]="Rheumatology"), Table1[[#This Row],[Therapy area]], "Other")</f>
@@ -7011,16 +7011,16 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B28" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C28" t="s">
         <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E28">
         <v>6.19</v>
@@ -7029,17 +7029,17 @@
         <v>14</v>
       </c>
       <c r="G28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H28" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I28" s="3">
         <f t="shared" si="0"/>
         <v>6.19</v>
       </c>
       <c r="J28" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="L28" t="str">
         <f>IF(OR(Table1[[#This Row],[Therapy area]]="Neurology", Table1[[#This Row],[Therapy area]]="Oncology", Table1[[#This Row],[Therapy area]]="Rheumatology"), Table1[[#This Row],[Therapy area]], "Other")</f>
@@ -7048,16 +7048,16 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B29" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C29" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D29" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E29">
         <v>8</v>
@@ -7066,17 +7066,17 @@
         <v>13</v>
       </c>
       <c r="G29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H29" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I29" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="L29" t="str">
         <f>IF(OR(Table1[[#This Row],[Therapy area]]="Neurology", Table1[[#This Row],[Therapy area]]="Oncology", Table1[[#This Row],[Therapy area]]="Rheumatology"), Table1[[#This Row],[Therapy area]], "Other")</f>
@@ -7085,16 +7085,16 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B30" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D30" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E30">
         <v>8</v>
@@ -7103,17 +7103,17 @@
         <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H30" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="I30" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="J30" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="L30" t="str">
         <f>IF(OR(Table1[[#This Row],[Therapy area]]="Neurology", Table1[[#This Row],[Therapy area]]="Oncology", Table1[[#This Row],[Therapy area]]="Rheumatology"), Table1[[#This Row],[Therapy area]], "Other")</f>
@@ -7122,16 +7122,16 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B31" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C31" t="s">
+        <v>273</v>
+      </c>
+      <c r="D31" t="s">
         <v>276</v>
-      </c>
-      <c r="D31" t="s">
-        <v>279</v>
       </c>
       <c r="E31">
         <v>9</v>
@@ -7140,17 +7140,17 @@
         <v>13</v>
       </c>
       <c r="G31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H31" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="I31" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="L31" t="str">
         <f>IF(OR(Table1[[#This Row],[Therapy area]]="Neurology", Table1[[#This Row],[Therapy area]]="Oncology", Table1[[#This Row],[Therapy area]]="Rheumatology"), Table1[[#This Row],[Therapy area]], "Other")</f>
@@ -7159,16 +7159,16 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B32" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C32" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D32" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E32">
         <v>11</v>
@@ -7177,17 +7177,17 @@
         <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H32" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I32" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="J32" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L32" t="str">
         <f>IF(OR(Table1[[#This Row],[Therapy area]]="Neurology", Table1[[#This Row],[Therapy area]]="Oncology", Table1[[#This Row],[Therapy area]]="Rheumatology"), Table1[[#This Row],[Therapy area]], "Other")</f>
@@ -7196,16 +7196,16 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B33" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C33" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D33" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E33">
         <v>12</v>
@@ -7214,17 +7214,17 @@
         <v>13</v>
       </c>
       <c r="G33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H33" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I33" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="L33" t="str">
         <f>IF(OR(Table1[[#This Row],[Therapy area]]="Neurology", Table1[[#This Row],[Therapy area]]="Oncology", Table1[[#This Row],[Therapy area]]="Rheumatology"), Table1[[#This Row],[Therapy area]], "Other")</f>
@@ -7233,16 +7233,16 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B34" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C34" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D34" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E34">
         <v>12</v>
@@ -7251,17 +7251,17 @@
         <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H34" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I34" s="3">
         <f t="shared" ref="I34:I65" si="1">IF(G34="Days", E34/30, IF(G34="Years", E34*12, IF(G34="Weeks", E34/4, E34)))</f>
         <v>12</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="L34" t="str">
         <f>IF(OR(Table1[[#This Row],[Therapy area]]="Neurology", Table1[[#This Row],[Therapy area]]="Oncology", Table1[[#This Row],[Therapy area]]="Rheumatology"), Table1[[#This Row],[Therapy area]], "Other")</f>
@@ -7270,16 +7270,16 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B35" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C35" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D35" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E35">
         <v>12</v>
@@ -7288,14 +7288,14 @@
         <v>13</v>
       </c>
       <c r="G35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I35" s="3">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="L35" t="str">
         <f>IF(OR(Table1[[#This Row],[Therapy area]]="Neurology", Table1[[#This Row],[Therapy area]]="Oncology", Table1[[#This Row],[Therapy area]]="Rheumatology"), Table1[[#This Row],[Therapy area]], "Other")</f>
@@ -7304,16 +7304,16 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B36" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36" t="s">
         <v>89</v>
-      </c>
-      <c r="C36" t="s">
-        <v>70</v>
-      </c>
-      <c r="D36" t="s">
-        <v>92</v>
       </c>
       <c r="E36">
         <v>13</v>
@@ -7322,17 +7322,17 @@
         <v>14</v>
       </c>
       <c r="G36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H36" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I36" s="3">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="L36" t="str">
         <f>IF(OR(Table1[[#This Row],[Therapy area]]="Neurology", Table1[[#This Row],[Therapy area]]="Oncology", Table1[[#This Row],[Therapy area]]="Rheumatology"), Table1[[#This Row],[Therapy area]], "Other")</f>
@@ -7341,16 +7341,16 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>293</v>
+      </c>
+      <c r="B37" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" t="s">
+        <v>96</v>
+      </c>
+      <c r="D37" t="s">
         <v>296</v>
-      </c>
-      <c r="B37" t="s">
-        <v>88</v>
-      </c>
-      <c r="C37" t="s">
-        <v>99</v>
-      </c>
-      <c r="D37" t="s">
-        <v>299</v>
       </c>
       <c r="E37">
         <v>13</v>
@@ -7359,17 +7359,17 @@
         <v>13</v>
       </c>
       <c r="G37" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H37" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="I37" s="3">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="L37" t="str">
         <f>IF(OR(Table1[[#This Row],[Therapy area]]="Neurology", Table1[[#This Row],[Therapy area]]="Oncology", Table1[[#This Row],[Therapy area]]="Rheumatology"), Table1[[#This Row],[Therapy area]], "Other")</f>
@@ -7378,16 +7378,16 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B38" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C38" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D38" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E38">
         <v>14</v>
@@ -7396,14 +7396,14 @@
         <v>14</v>
       </c>
       <c r="G38" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I38" s="3">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L38" t="str">
         <f>IF(OR(Table1[[#This Row],[Therapy area]]="Neurology", Table1[[#This Row],[Therapy area]]="Oncology", Table1[[#This Row],[Therapy area]]="Rheumatology"), Table1[[#This Row],[Therapy area]], "Other")</f>
@@ -7412,16 +7412,16 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B39" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C39" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D39" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E39">
         <v>14.3</v>
@@ -7430,14 +7430,14 @@
         <v>14</v>
       </c>
       <c r="G39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I39" s="3">
         <f t="shared" si="1"/>
         <v>14.3</v>
       </c>
       <c r="J39" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L39" t="str">
         <f>IF(OR(Table1[[#This Row],[Therapy area]]="Neurology", Table1[[#This Row],[Therapy area]]="Oncology", Table1[[#This Row],[Therapy area]]="Rheumatology"), Table1[[#This Row],[Therapy area]], "Other")</f>
@@ -7446,16 +7446,16 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B40" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C40" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D40" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E40">
         <v>1.2</v>
@@ -7464,17 +7464,17 @@
         <v>13</v>
       </c>
       <c r="G40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H40" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I40" s="3">
         <f t="shared" si="1"/>
         <v>14.399999999999999</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="L40" t="str">
         <f>IF(OR(Table1[[#This Row],[Therapy area]]="Neurology", Table1[[#This Row],[Therapy area]]="Oncology", Table1[[#This Row],[Therapy area]]="Rheumatology"), Table1[[#This Row],[Therapy area]], "Other")</f>
@@ -7483,16 +7483,16 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B41" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C41" t="s">
         <v>22</v>
       </c>
       <c r="D41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E41">
         <v>17</v>
@@ -7501,7 +7501,7 @@
         <v>13</v>
       </c>
       <c r="G41" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I41" s="3">
         <f t="shared" si="1"/>
@@ -7517,16 +7517,16 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" t="s">
+        <v>53</v>
+      </c>
+      <c r="D42" t="s">
         <v>55</v>
-      </c>
-      <c r="B42" t="s">
-        <v>89</v>
-      </c>
-      <c r="C42" t="s">
-        <v>56</v>
-      </c>
-      <c r="D42" t="s">
-        <v>58</v>
       </c>
       <c r="E42">
         <v>18.5</v>
@@ -7535,17 +7535,17 @@
         <v>14</v>
       </c>
       <c r="G42" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H42" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I42" s="3">
         <f t="shared" si="1"/>
         <v>18.5</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L42" t="str">
         <f>IF(OR(Table1[[#This Row],[Therapy area]]="Neurology", Table1[[#This Row],[Therapy area]]="Oncology", Table1[[#This Row],[Therapy area]]="Rheumatology"), Table1[[#This Row],[Therapy area]], "Other")</f>
@@ -7554,13 +7554,13 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B43" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C43" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D43">
         <v>2013</v>
@@ -7572,17 +7572,17 @@
         <v>14</v>
       </c>
       <c r="G43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H43" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="I43" s="3">
         <f t="shared" si="1"/>
         <v>19.200000000000003</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="L43" t="str">
         <f>IF(OR(Table1[[#This Row],[Therapy area]]="Neurology", Table1[[#This Row],[Therapy area]]="Oncology", Table1[[#This Row],[Therapy area]]="Rheumatology"), Table1[[#This Row],[Therapy area]], "Other")</f>
@@ -7591,13 +7591,13 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B44" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C44" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E44">
         <v>20</v>
@@ -7606,14 +7606,14 @@
         <v>14</v>
       </c>
       <c r="G44" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I44" s="3">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="L44" t="str">
         <f>IF(OR(Table1[[#This Row],[Therapy area]]="Neurology", Table1[[#This Row],[Therapy area]]="Oncology", Table1[[#This Row],[Therapy area]]="Rheumatology"), Table1[[#This Row],[Therapy area]], "Other")</f>
@@ -7622,16 +7622,16 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B45" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C45" t="s">
+        <v>147</v>
+      </c>
+      <c r="D45" t="s">
         <v>150</v>
-      </c>
-      <c r="D45" t="s">
-        <v>153</v>
       </c>
       <c r="E45">
         <v>1.75</v>
@@ -7640,17 +7640,17 @@
         <v>13</v>
       </c>
       <c r="G45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H45" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="I45" s="3">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="L45" t="str">
         <f>IF(OR(Table1[[#This Row],[Therapy area]]="Neurology", Table1[[#This Row],[Therapy area]]="Oncology", Table1[[#This Row],[Therapy area]]="Rheumatology"), Table1[[#This Row],[Therapy area]], "Other")</f>
@@ -7659,16 +7659,16 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B46" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C46" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D46" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E46">
         <v>21.3</v>
@@ -7677,17 +7677,17 @@
         <v>14</v>
       </c>
       <c r="G46" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H46" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="I46" s="3">
         <f t="shared" si="1"/>
         <v>21.3</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="L46" t="str">
         <f>IF(OR(Table1[[#This Row],[Therapy area]]="Neurology", Table1[[#This Row],[Therapy area]]="Oncology", Table1[[#This Row],[Therapy area]]="Rheumatology"), Table1[[#This Row],[Therapy area]], "Other")</f>
@@ -7696,16 +7696,16 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B47" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C47" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D47" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E47">
         <v>22.6</v>
@@ -7714,14 +7714,14 @@
         <v>14</v>
       </c>
       <c r="G47" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I47" s="3">
         <f t="shared" si="1"/>
         <v>22.6</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="L47" t="str">
         <f>IF(OR(Table1[[#This Row],[Therapy area]]="Neurology", Table1[[#This Row],[Therapy area]]="Oncology", Table1[[#This Row],[Therapy area]]="Rheumatology"), Table1[[#This Row],[Therapy area]], "Other")</f>
@@ -7730,16 +7730,16 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B48" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C48" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D48" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E48">
         <v>24</v>
@@ -7748,17 +7748,17 @@
         <v>13</v>
       </c>
       <c r="G48" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H48" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="I48" s="3">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="J48" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="L48" t="str">
         <f>IF(OR(Table1[[#This Row],[Therapy area]]="Neurology", Table1[[#This Row],[Therapy area]]="Oncology", Table1[[#This Row],[Therapy area]]="Rheumatology"), Table1[[#This Row],[Therapy area]], "Other")</f>
@@ -7767,13 +7767,13 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>42</v>
+        <v>410</v>
       </c>
       <c r="B49" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C49" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D49">
         <v>2013</v>
@@ -7785,17 +7785,17 @@
         <v>14</v>
       </c>
       <c r="G49" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H49" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I49" s="3">
         <f t="shared" si="1"/>
         <v>25.200000000000003</v>
       </c>
       <c r="J49" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L49" t="str">
         <f>IF(OR(Table1[[#This Row],[Therapy area]]="Neurology", Table1[[#This Row],[Therapy area]]="Oncology", Table1[[#This Row],[Therapy area]]="Rheumatology"), Table1[[#This Row],[Therapy area]], "Other")</f>
@@ -7804,13 +7804,13 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B50" t="s">
+        <v>93</v>
+      </c>
+      <c r="C50" t="s">
         <v>96</v>
-      </c>
-      <c r="C50" t="s">
-        <v>99</v>
       </c>
       <c r="D50">
         <v>2016</v>
@@ -7822,17 +7822,17 @@
         <v>13</v>
       </c>
       <c r="G50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H50" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I50" s="3">
         <f t="shared" si="1"/>
         <v>25.200000000000003</v>
       </c>
       <c r="J50" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L50" t="str">
         <f>IF(OR(Table1[[#This Row],[Therapy area]]="Neurology", Table1[[#This Row],[Therapy area]]="Oncology", Table1[[#This Row],[Therapy area]]="Rheumatology"), Table1[[#This Row],[Therapy area]], "Other")</f>
@@ -7841,13 +7841,13 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B51" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C51" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D51">
         <v>2013</v>
@@ -7859,17 +7859,17 @@
         <v>14</v>
       </c>
       <c r="G51" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H51" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I51" s="3">
         <f t="shared" si="1"/>
         <v>26.400000000000002</v>
       </c>
       <c r="J51" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L51" t="str">
         <f>IF(OR(Table1[[#This Row],[Therapy area]]="Neurology", Table1[[#This Row],[Therapy area]]="Oncology", Table1[[#This Row],[Therapy area]]="Rheumatology"), Table1[[#This Row],[Therapy area]], "Other")</f>
@@ -7878,16 +7878,16 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B52" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C52" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D52" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E52">
         <v>28</v>
@@ -7896,17 +7896,17 @@
         <v>13</v>
       </c>
       <c r="G52" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H52" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="I52" s="3">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="J52" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="L52" t="str">
         <f>IF(OR(Table1[[#This Row],[Therapy area]]="Neurology", Table1[[#This Row],[Therapy area]]="Oncology", Table1[[#This Row],[Therapy area]]="Rheumatology"), Table1[[#This Row],[Therapy area]], "Other")</f>
@@ -7915,16 +7915,16 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B53" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C53" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D53" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E53">
         <v>115</v>
@@ -7933,17 +7933,17 @@
         <v>13</v>
       </c>
       <c r="G53" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H53" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="I53" s="3">
         <f t="shared" si="1"/>
         <v>28.75</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="L53" t="str">
         <f>IF(OR(Table1[[#This Row],[Therapy area]]="Neurology", Table1[[#This Row],[Therapy area]]="Oncology", Table1[[#This Row],[Therapy area]]="Rheumatology"), Table1[[#This Row],[Therapy area]], "Other")</f>
@@ -7952,16 +7952,16 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B54" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C54" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D54" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E54">
         <v>30</v>
@@ -7970,14 +7970,14 @@
         <v>14</v>
       </c>
       <c r="G54" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I54" s="3">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L54" t="str">
         <f>IF(OR(Table1[[#This Row],[Therapy area]]="Neurology", Table1[[#This Row],[Therapy area]]="Oncology", Table1[[#This Row],[Therapy area]]="Rheumatology"), Table1[[#This Row],[Therapy area]], "Other")</f>
@@ -7986,16 +7986,16 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B55" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C55" t="s">
         <v>22</v>
       </c>
       <c r="D55" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E55">
         <v>30</v>
@@ -8004,7 +8004,7 @@
         <v>13</v>
       </c>
       <c r="G55" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I55" s="3">
         <f t="shared" si="1"/>
@@ -8020,16 +8020,16 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B56" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C56" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D56" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E56">
         <v>2.6</v>
@@ -8038,17 +8038,17 @@
         <v>14</v>
       </c>
       <c r="G56" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H56" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I56" s="3">
         <f t="shared" si="1"/>
         <v>31.200000000000003</v>
       </c>
       <c r="J56" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="L56" t="str">
         <f>IF(OR(Table1[[#This Row],[Therapy area]]="Neurology", Table1[[#This Row],[Therapy area]]="Oncology", Table1[[#This Row],[Therapy area]]="Rheumatology"), Table1[[#This Row],[Therapy area]], "Other")</f>
@@ -8057,16 +8057,16 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B57" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C57" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D57" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E57">
         <v>32.89</v>
@@ -8075,14 +8075,14 @@
         <v>14</v>
       </c>
       <c r="G57" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I57" s="3">
         <f t="shared" si="1"/>
         <v>32.89</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="L57" t="str">
         <f>IF(OR(Table1[[#This Row],[Therapy area]]="Neurology", Table1[[#This Row],[Therapy area]]="Oncology", Table1[[#This Row],[Therapy area]]="Rheumatology"), Table1[[#This Row],[Therapy area]], "Other")</f>
@@ -8091,16 +8091,16 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B58" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C58" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D58" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E58">
         <v>33</v>
@@ -8109,17 +8109,17 @@
         <v>13</v>
       </c>
       <c r="G58" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H58" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I58" s="3">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="L58" t="str">
         <f>IF(OR(Table1[[#This Row],[Therapy area]]="Neurology", Table1[[#This Row],[Therapy area]]="Oncology", Table1[[#This Row],[Therapy area]]="Rheumatology"), Table1[[#This Row],[Therapy area]], "Other")</f>
@@ -8128,13 +8128,13 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B59" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C59" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D59">
         <v>2013</v>
@@ -8146,17 +8146,17 @@
         <v>14</v>
       </c>
       <c r="G59" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H59" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I59" s="3">
         <f t="shared" si="1"/>
         <v>33.599999999999994</v>
       </c>
       <c r="J59" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L59" t="str">
         <f>IF(OR(Table1[[#This Row],[Therapy area]]="Neurology", Table1[[#This Row],[Therapy area]]="Oncology", Table1[[#This Row],[Therapy area]]="Rheumatology"), Table1[[#This Row],[Therapy area]], "Other")</f>
@@ -8165,16 +8165,16 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B60" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C60" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D60" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E60">
         <v>34</v>
@@ -8183,14 +8183,14 @@
         <v>14</v>
       </c>
       <c r="G60" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I60" s="3">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L60" t="str">
         <f>IF(OR(Table1[[#This Row],[Therapy area]]="Neurology", Table1[[#This Row],[Therapy area]]="Oncology", Table1[[#This Row],[Therapy area]]="Rheumatology"), Table1[[#This Row],[Therapy area]], "Other")</f>
@@ -8199,13 +8199,13 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B61" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C61" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D61">
         <v>2013</v>
@@ -8217,17 +8217,17 @@
         <v>14</v>
       </c>
       <c r="G61" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H61" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I61" s="3">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="J61" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L61" t="str">
         <f>IF(OR(Table1[[#This Row],[Therapy area]]="Neurology", Table1[[#This Row],[Therapy area]]="Oncology", Table1[[#This Row],[Therapy area]]="Rheumatology"), Table1[[#This Row],[Therapy area]], "Other")</f>
@@ -8236,16 +8236,16 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B62" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C62" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D62" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E62">
         <v>3</v>
@@ -8254,17 +8254,17 @@
         <v>13</v>
       </c>
       <c r="G62" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H62" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I62" s="3">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="J62" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L62" t="str">
         <f>IF(OR(Table1[[#This Row],[Therapy area]]="Neurology", Table1[[#This Row],[Therapy area]]="Oncology", Table1[[#This Row],[Therapy area]]="Rheumatology"), Table1[[#This Row],[Therapy area]], "Other")</f>
@@ -8273,13 +8273,13 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B63" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C63" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D63">
         <v>2013</v>
@@ -8291,17 +8291,17 @@
         <v>14</v>
       </c>
       <c r="G63" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H63" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I63" s="3">
         <f t="shared" si="1"/>
         <v>37.200000000000003</v>
       </c>
       <c r="J63" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L63" t="str">
         <f>IF(OR(Table1[[#This Row],[Therapy area]]="Neurology", Table1[[#This Row],[Therapy area]]="Oncology", Table1[[#This Row],[Therapy area]]="Rheumatology"), Table1[[#This Row],[Therapy area]], "Other")</f>
@@ -8310,16 +8310,16 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B64" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C64" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D64" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E64">
         <v>38</v>
@@ -8328,14 +8328,14 @@
         <v>14</v>
       </c>
       <c r="G64" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I64" s="3">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L64" t="str">
         <f>IF(OR(Table1[[#This Row],[Therapy area]]="Neurology", Table1[[#This Row],[Therapy area]]="Oncology", Table1[[#This Row],[Therapy area]]="Rheumatology"), Table1[[#This Row],[Therapy area]], "Other")</f>
@@ -8344,16 +8344,16 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>24</v>
+        <v>411</v>
       </c>
       <c r="B65" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C65" t="s">
         <v>22</v>
       </c>
       <c r="D65" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E65">
         <v>40</v>
@@ -8362,7 +8362,7 @@
         <v>13</v>
       </c>
       <c r="G65" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I65" s="3">
         <f t="shared" si="1"/>
@@ -8378,16 +8378,16 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B66" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C66" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D66" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E66">
         <v>3.6</v>
@@ -8396,14 +8396,14 @@
         <v>14</v>
       </c>
       <c r="G66" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I66" s="3">
         <f t="shared" ref="I66:I95" si="2">IF(G66="Days", E66/30, IF(G66="Years", E66*12, IF(G66="Weeks", E66/4, E66)))</f>
         <v>43.2</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="L66" t="str">
         <f>IF(OR(Table1[[#This Row],[Therapy area]]="Neurology", Table1[[#This Row],[Therapy area]]="Oncology", Table1[[#This Row],[Therapy area]]="Rheumatology"), Table1[[#This Row],[Therapy area]], "Other")</f>
@@ -8412,13 +8412,13 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B67" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C67" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D67">
         <v>2013</v>
@@ -8430,17 +8430,17 @@
         <v>14</v>
       </c>
       <c r="G67" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H67" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I67" s="3">
         <f t="shared" si="2"/>
         <v>43.2</v>
       </c>
       <c r="J67" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L67" t="str">
         <f>IF(OR(Table1[[#This Row],[Therapy area]]="Neurology", Table1[[#This Row],[Therapy area]]="Oncology", Table1[[#This Row],[Therapy area]]="Rheumatology"), Table1[[#This Row],[Therapy area]], "Other")</f>
@@ -8449,16 +8449,16 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B68" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C68" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D68" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E68">
         <v>43.6</v>
@@ -8467,14 +8467,14 @@
         <v>14</v>
       </c>
       <c r="G68" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I68" s="3">
         <f t="shared" si="2"/>
         <v>43.6</v>
       </c>
       <c r="J68" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L68" t="str">
         <f>IF(OR(Table1[[#This Row],[Therapy area]]="Neurology", Table1[[#This Row],[Therapy area]]="Oncology", Table1[[#This Row],[Therapy area]]="Rheumatology"), Table1[[#This Row],[Therapy area]], "Other")</f>
@@ -8483,16 +8483,16 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B69" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C69" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D69" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E69">
         <v>44</v>
@@ -8501,14 +8501,14 @@
         <v>13</v>
       </c>
       <c r="G69" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I69" s="3">
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
       <c r="J69" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="L69" t="str">
         <f>IF(OR(Table1[[#This Row],[Therapy area]]="Neurology", Table1[[#This Row],[Therapy area]]="Oncology", Table1[[#This Row],[Therapy area]]="Rheumatology"), Table1[[#This Row],[Therapy area]], "Other")</f>
@@ -8517,13 +8517,13 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B70" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C70" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D70">
         <v>2013</v>
@@ -8535,17 +8535,17 @@
         <v>14</v>
       </c>
       <c r="G70" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H70" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I70" s="3">
         <f t="shared" si="2"/>
         <v>45.599999999999994</v>
       </c>
       <c r="J70" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L70" t="str">
         <f>IF(OR(Table1[[#This Row],[Therapy area]]="Neurology", Table1[[#This Row],[Therapy area]]="Oncology", Table1[[#This Row],[Therapy area]]="Rheumatology"), Table1[[#This Row],[Therapy area]], "Other")</f>
@@ -8554,13 +8554,13 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B71" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C71" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D71">
         <v>2013</v>
@@ -8572,17 +8572,17 @@
         <v>14</v>
       </c>
       <c r="G71" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H71" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I71" s="3">
         <f t="shared" si="2"/>
         <v>46.8</v>
       </c>
       <c r="J71" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L71" t="str">
         <f>IF(OR(Table1[[#This Row],[Therapy area]]="Neurology", Table1[[#This Row],[Therapy area]]="Oncology", Table1[[#This Row],[Therapy area]]="Rheumatology"), Table1[[#This Row],[Therapy area]], "Other")</f>
@@ -8591,13 +8591,13 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B72" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C72" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D72">
         <v>2013</v>
@@ -8609,17 +8609,17 @@
         <v>14</v>
       </c>
       <c r="G72" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H72" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I72" s="3">
         <f t="shared" si="2"/>
         <v>50.400000000000006</v>
       </c>
       <c r="J72" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L72" t="str">
         <f>IF(OR(Table1[[#This Row],[Therapy area]]="Neurology", Table1[[#This Row],[Therapy area]]="Oncology", Table1[[#This Row],[Therapy area]]="Rheumatology"), Table1[[#This Row],[Therapy area]], "Other")</f>
@@ -8628,13 +8628,13 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B73" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C73" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D73">
         <v>2013</v>
@@ -8646,17 +8646,17 @@
         <v>14</v>
       </c>
       <c r="G73" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H73" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I73" s="3">
         <f t="shared" si="2"/>
         <v>52.800000000000004</v>
       </c>
       <c r="J73" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L73" t="str">
         <f>IF(OR(Table1[[#This Row],[Therapy area]]="Neurology", Table1[[#This Row],[Therapy area]]="Oncology", Table1[[#This Row],[Therapy area]]="Rheumatology"), Table1[[#This Row],[Therapy area]], "Other")</f>
@@ -8665,16 +8665,16 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B74" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C74" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D74" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E74">
         <v>5.5</v>
@@ -8683,17 +8683,17 @@
         <v>13</v>
       </c>
       <c r="G74" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H74" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I74" s="3">
         <f t="shared" si="2"/>
         <v>66</v>
       </c>
       <c r="J74" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="L74" t="str">
         <f>IF(OR(Table1[[#This Row],[Therapy area]]="Neurology", Table1[[#This Row],[Therapy area]]="Oncology", Table1[[#This Row],[Therapy area]]="Rheumatology"), Table1[[#This Row],[Therapy area]], "Other")</f>
@@ -8702,13 +8702,13 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B75" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C75" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D75">
         <v>2003</v>
@@ -8720,17 +8720,17 @@
         <v>14</v>
       </c>
       <c r="G75" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H75" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="I75" s="3">
         <f t="shared" si="2"/>
         <v>67.199999999999989</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="L75" t="str">
         <f>IF(OR(Table1[[#This Row],[Therapy area]]="Neurology", Table1[[#This Row],[Therapy area]]="Oncology", Table1[[#This Row],[Therapy area]]="Rheumatology"), Table1[[#This Row],[Therapy area]], "Other")</f>
@@ -8739,16 +8739,16 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B76" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C76" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D76" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E76">
         <v>6</v>
@@ -8757,17 +8757,17 @@
         <v>13</v>
       </c>
       <c r="G76" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H76" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="I76" s="3">
         <f t="shared" si="2"/>
         <v>72</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="L76" t="str">
         <f>IF(OR(Table1[[#This Row],[Therapy area]]="Neurology", Table1[[#This Row],[Therapy area]]="Oncology", Table1[[#This Row],[Therapy area]]="Rheumatology"), Table1[[#This Row],[Therapy area]], "Other")</f>
@@ -8776,13 +8776,13 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>49</v>
+        <v>412</v>
       </c>
       <c r="B77" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C77" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D77">
         <v>2013</v>
@@ -8794,17 +8794,17 @@
         <v>14</v>
       </c>
       <c r="G77" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H77" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I77" s="3">
         <f t="shared" si="2"/>
         <v>73.199999999999989</v>
       </c>
       <c r="J77" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L77" t="str">
         <f>IF(OR(Table1[[#This Row],[Therapy area]]="Neurology", Table1[[#This Row],[Therapy area]]="Oncology", Table1[[#This Row],[Therapy area]]="Rheumatology"), Table1[[#This Row],[Therapy area]], "Other")</f>
@@ -8813,16 +8813,16 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B78" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C78" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D78" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E78">
         <v>6.3</v>
@@ -8831,17 +8831,17 @@
         <v>14</v>
       </c>
       <c r="G78" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H78" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I78" s="3">
         <f t="shared" si="2"/>
         <v>75.599999999999994</v>
       </c>
       <c r="J78" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L78" t="str">
         <f>IF(OR(Table1[[#This Row],[Therapy area]]="Neurology", Table1[[#This Row],[Therapy area]]="Oncology", Table1[[#This Row],[Therapy area]]="Rheumatology"), Table1[[#This Row],[Therapy area]], "Other")</f>
@@ -8850,13 +8850,13 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>24</v>
+        <v>411</v>
       </c>
       <c r="B79" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C79" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D79">
         <v>2013</v>
@@ -8868,17 +8868,17 @@
         <v>14</v>
       </c>
       <c r="G79" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H79" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I79" s="3">
         <f t="shared" si="2"/>
         <v>76.800000000000011</v>
       </c>
       <c r="J79" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L79" t="str">
         <f>IF(OR(Table1[[#This Row],[Therapy area]]="Neurology", Table1[[#This Row],[Therapy area]]="Oncology", Table1[[#This Row],[Therapy area]]="Rheumatology"), Table1[[#This Row],[Therapy area]], "Other")</f>
@@ -8887,16 +8887,16 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>98</v>
+      </c>
+      <c r="B80" t="s">
+        <v>99</v>
+      </c>
+      <c r="C80" t="s">
+        <v>100</v>
+      </c>
+      <c r="D80" t="s">
         <v>101</v>
-      </c>
-      <c r="B80" t="s">
-        <v>102</v>
-      </c>
-      <c r="C80" t="s">
-        <v>103</v>
-      </c>
-      <c r="D80" t="s">
-        <v>104</v>
       </c>
       <c r="E80">
         <v>6.46</v>
@@ -8905,14 +8905,14 @@
         <v>14</v>
       </c>
       <c r="G80" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I80" s="3">
         <f t="shared" si="2"/>
         <v>77.52</v>
       </c>
       <c r="J80" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="L80" t="str">
         <f>IF(OR(Table1[[#This Row],[Therapy area]]="Neurology", Table1[[#This Row],[Therapy area]]="Oncology", Table1[[#This Row],[Therapy area]]="Rheumatology"), Table1[[#This Row],[Therapy area]], "Other")</f>
@@ -8921,16 +8921,16 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B81" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C81" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D81" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E81">
         <v>6.7</v>
@@ -8939,17 +8939,17 @@
         <v>14</v>
       </c>
       <c r="G81" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H81" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I81" s="3">
         <f t="shared" si="2"/>
         <v>80.400000000000006</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="L81" t="str">
         <f>IF(OR(Table1[[#This Row],[Therapy area]]="Neurology", Table1[[#This Row],[Therapy area]]="Oncology", Table1[[#This Row],[Therapy area]]="Rheumatology"), Table1[[#This Row],[Therapy area]], "Other")</f>
@@ -8958,16 +8958,16 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B82" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C82" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D82" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E82">
         <v>6.7</v>
@@ -8976,17 +8976,17 @@
         <v>14</v>
       </c>
       <c r="G82" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H82" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I82" s="3">
         <f t="shared" si="2"/>
         <v>80.400000000000006</v>
       </c>
       <c r="J82" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="L82" t="str">
         <f>IF(OR(Table1[[#This Row],[Therapy area]]="Neurology", Table1[[#This Row],[Therapy area]]="Oncology", Table1[[#This Row],[Therapy area]]="Rheumatology"), Table1[[#This Row],[Therapy area]], "Other")</f>
@@ -8995,13 +8995,13 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B83" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C83" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D83">
         <v>2013</v>
@@ -9013,17 +9013,17 @@
         <v>14</v>
       </c>
       <c r="G83" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H83" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="I83" s="3">
         <f t="shared" si="2"/>
         <v>86.4</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="L83" t="str">
         <f>IF(OR(Table1[[#This Row],[Therapy area]]="Neurology", Table1[[#This Row],[Therapy area]]="Oncology", Table1[[#This Row],[Therapy area]]="Rheumatology"), Table1[[#This Row],[Therapy area]], "Other")</f>
@@ -9032,16 +9032,16 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B84" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C84" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D84" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E84">
         <v>87</v>
@@ -9050,17 +9050,17 @@
         <v>14</v>
       </c>
       <c r="G84" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H84" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="I84" s="3">
         <f t="shared" si="2"/>
         <v>87</v>
       </c>
       <c r="J84" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="L84" t="str">
         <f>IF(OR(Table1[[#This Row],[Therapy area]]="Neurology", Table1[[#This Row],[Therapy area]]="Oncology", Table1[[#This Row],[Therapy area]]="Rheumatology"), Table1[[#This Row],[Therapy area]], "Other")</f>
@@ -9069,13 +9069,13 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
+        <v>74</v>
+      </c>
+      <c r="B85" t="s">
+        <v>88</v>
+      </c>
+      <c r="C85" t="s">
         <v>77</v>
-      </c>
-      <c r="B85" t="s">
-        <v>91</v>
-      </c>
-      <c r="C85" t="s">
-        <v>80</v>
       </c>
       <c r="D85">
         <v>2014</v>
@@ -9087,17 +9087,17 @@
         <v>13</v>
       </c>
       <c r="G85" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H85" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I85" s="3">
         <f t="shared" si="2"/>
         <v>96</v>
       </c>
       <c r="J85" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="L85" t="str">
         <f>IF(OR(Table1[[#This Row],[Therapy area]]="Neurology", Table1[[#This Row],[Therapy area]]="Oncology", Table1[[#This Row],[Therapy area]]="Rheumatology"), Table1[[#This Row],[Therapy area]], "Other")</f>
@@ -9106,16 +9106,16 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B86" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C86" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D86" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E86">
         <v>8.5</v>
@@ -9124,17 +9124,17 @@
         <v>13</v>
       </c>
       <c r="G86" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H86" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="I86" s="3">
         <f t="shared" si="2"/>
         <v>102</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L86" t="str">
         <f>IF(OR(Table1[[#This Row],[Therapy area]]="Neurology", Table1[[#This Row],[Therapy area]]="Oncology", Table1[[#This Row],[Therapy area]]="Rheumatology"), Table1[[#This Row],[Therapy area]], "Other")</f>
@@ -9143,16 +9143,16 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B87" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C87" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D87" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E87">
         <v>8.6999999999999993</v>
@@ -9161,17 +9161,17 @@
         <v>14</v>
       </c>
       <c r="G87" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H87" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I87" s="3">
         <f t="shared" si="2"/>
         <v>104.39999999999999</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="L87" t="str">
         <f>IF(OR(Table1[[#This Row],[Therapy area]]="Neurology", Table1[[#This Row],[Therapy area]]="Oncology", Table1[[#This Row],[Therapy area]]="Rheumatology"), Table1[[#This Row],[Therapy area]], "Other")</f>
@@ -9180,16 +9180,16 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B88" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C88" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D88" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E88">
         <v>8.9</v>
@@ -9198,17 +9198,17 @@
         <v>14</v>
       </c>
       <c r="G88" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H88" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I88" s="3">
         <f t="shared" si="2"/>
         <v>106.80000000000001</v>
       </c>
       <c r="J88" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="L88" t="str">
         <f>IF(OR(Table1[[#This Row],[Therapy area]]="Neurology", Table1[[#This Row],[Therapy area]]="Oncology", Table1[[#This Row],[Therapy area]]="Rheumatology"), Table1[[#This Row],[Therapy area]], "Other")</f>
@@ -9217,16 +9217,16 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
+        <v>197</v>
+      </c>
+      <c r="B89" t="s">
+        <v>86</v>
+      </c>
+      <c r="C89" t="s">
+        <v>59</v>
+      </c>
+      <c r="D89" t="s">
         <v>200</v>
-      </c>
-      <c r="B89" t="s">
-        <v>89</v>
-      </c>
-      <c r="C89" t="s">
-        <v>62</v>
-      </c>
-      <c r="D89" t="s">
-        <v>203</v>
       </c>
       <c r="E89">
         <v>10.7</v>
@@ -9235,17 +9235,17 @@
         <v>14</v>
       </c>
       <c r="G89" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H89" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="I89" s="3">
         <f t="shared" si="2"/>
         <v>128.39999999999998</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="L89" t="str">
         <f>IF(OR(Table1[[#This Row],[Therapy area]]="Neurology", Table1[[#This Row],[Therapy area]]="Oncology", Table1[[#This Row],[Therapy area]]="Rheumatology"), Table1[[#This Row],[Therapy area]], "Other")</f>
@@ -9254,16 +9254,16 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B90" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C90" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D90" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E90">
         <v>144</v>
@@ -9272,17 +9272,17 @@
         <v>13</v>
       </c>
       <c r="G90" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H90" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="I90" s="3">
         <f t="shared" si="2"/>
         <v>144</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L90" t="str">
         <f>IF(OR(Table1[[#This Row],[Therapy area]]="Neurology", Table1[[#This Row],[Therapy area]]="Oncology", Table1[[#This Row],[Therapy area]]="Rheumatology"), Table1[[#This Row],[Therapy area]], "Other")</f>
@@ -9291,16 +9291,16 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B91" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C91" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D91" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E91">
         <v>12.6</v>
@@ -9309,17 +9309,17 @@
         <v>13</v>
       </c>
       <c r="G91" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H91" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I91" s="3">
         <f t="shared" si="2"/>
         <v>151.19999999999999</v>
       </c>
       <c r="J91" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="L91" t="str">
         <f>IF(OR(Table1[[#This Row],[Therapy area]]="Neurology", Table1[[#This Row],[Therapy area]]="Oncology", Table1[[#This Row],[Therapy area]]="Rheumatology"), Table1[[#This Row],[Therapy area]], "Other")</f>
@@ -9328,16 +9328,16 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B92" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C92" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D92" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E92">
         <v>13</v>
@@ -9346,14 +9346,14 @@
         <v>14</v>
       </c>
       <c r="G92" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I92" s="3">
         <f t="shared" si="2"/>
         <v>156</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L92" t="str">
         <f>IF(OR(Table1[[#This Row],[Therapy area]]="Neurology", Table1[[#This Row],[Therapy area]]="Oncology", Table1[[#This Row],[Therapy area]]="Rheumatology"), Table1[[#This Row],[Therapy area]], "Other")</f>
@@ -9362,13 +9362,13 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B93" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C93" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E93">
         <v>16</v>
@@ -9377,14 +9377,14 @@
         <v>14</v>
       </c>
       <c r="G93" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I93" s="3">
         <f t="shared" si="2"/>
         <v>192</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L93" t="str">
         <f>IF(OR(Table1[[#This Row],[Therapy area]]="Neurology", Table1[[#This Row],[Therapy area]]="Oncology", Table1[[#This Row],[Therapy area]]="Rheumatology"), Table1[[#This Row],[Therapy area]], "Other")</f>
@@ -9393,16 +9393,16 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B94" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C94" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D94" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E94">
         <v>17</v>
@@ -9411,17 +9411,17 @@
         <v>13</v>
       </c>
       <c r="G94" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H94" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="I94" s="3">
         <f t="shared" si="2"/>
         <v>204</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="L94" t="str">
         <f>IF(OR(Table1[[#This Row],[Therapy area]]="Neurology", Table1[[#This Row],[Therapy area]]="Oncology", Table1[[#This Row],[Therapy area]]="Rheumatology"), Table1[[#This Row],[Therapy area]], "Other")</f>
@@ -9430,16 +9430,16 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B95" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C95" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D95" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E95">
         <v>25.7</v>
@@ -9448,17 +9448,17 @@
         <v>14</v>
       </c>
       <c r="G95" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H95" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I95" s="3">
         <f t="shared" si="2"/>
         <v>308.39999999999998</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="L95" t="str">
         <f>IF(OR(Table1[[#This Row],[Therapy area]]="Neurology", Table1[[#This Row],[Therapy area]]="Oncology", Table1[[#This Row],[Therapy area]]="Rheumatology"), Table1[[#This Row],[Therapy area]], "Other")</f>
@@ -9533,7 +9533,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4390062C-ACD4-4ECC-BC5D-69ADAC4C3F20}">
   <dimension ref="A1:AH163"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
@@ -9554,19 +9554,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
@@ -9574,10 +9574,10 @@
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C2">
         <f>AVERAGEIF('Average time to Dx'!A:A, Table2[[#This Row],[Indication]],'Average time to Dx'!I:I)</f>
@@ -9596,30 +9596,30 @@
         <v>0.99845876462327743</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="AC2" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="AD2" s="6">
         <v>0.9</v>
       </c>
       <c r="AE2" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="AF2" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="AH2" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C3">
         <f>AVERAGEIF('Average time to Dx'!A:A, Table2[[#This Row],[Indication]],'Average time to Dx'!I:I)</f>
@@ -9637,7 +9637,7 @@
         <v>0.99749056993368113</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="AE3" s="8">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>1</v>
       </c>
       <c r="AH3">
-        <f>AE3*12</f>
+        <f t="shared" ref="AH3:AH21" si="0">AE3*12</f>
         <v>0</v>
       </c>
     </row>
@@ -9655,7 +9655,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C4">
         <f>AVERAGEIF('Average time to Dx'!A:A, Table2[[#This Row],[Indication]],'Average time to Dx'!I:I)</f>
@@ -9673,7 +9673,7 @@
         <v>0.99639498197035137</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="AE4" s="8">
         <v>0.01</v>
@@ -9683,7 +9683,7 @@
         <v>0.99997343860111243</v>
       </c>
       <c r="AH4">
-        <f>AE4*12</f>
+        <f t="shared" si="0"/>
         <v>0.12</v>
       </c>
     </row>
@@ -9692,7 +9692,7 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C5">
         <f>AVERAGEIF('Average time to Dx'!A:A, Table2[[#This Row],[Indication]],'Average time to Dx'!I:I)</f>
@@ -9710,7 +9710,7 @@
         <v>0.99549575994518102</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="AE5" s="8">
         <v>0.1</v>
@@ -9720,16 +9720,16 @@
         <v>0.65132155989999985</v>
       </c>
       <c r="AH5">
-        <f>AE5*12</f>
+        <f t="shared" si="0"/>
         <v>1.2000000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C6">
         <f>AVERAGEIF('Average time to Dx'!A:A, Table2[[#This Row],[Indication]],'Average time to Dx'!I:I)</f>
@@ -9747,26 +9747,26 @@
         <v>0.99263462491807641</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="AE6" s="8">
         <v>0.2</v>
       </c>
       <c r="AF6" s="13">
-        <f t="shared" ref="AF5:AF68" si="0">-(($AD$2^(1/AE6))-1)</f>
+        <f t="shared" ref="AF6:AF22" si="1">-(($AD$2^(1/AE6))-1)</f>
         <v>0.40950999999999982</v>
       </c>
       <c r="AH6">
-        <f>AE6*12</f>
+        <f t="shared" si="0"/>
         <v>2.4000000000000004</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C7">
         <f>AVERAGEIF('Average time to Dx'!A:A, Table2[[#This Row],[Indication]],'Average time to Dx'!I:I)</f>
@@ -9785,26 +9785,26 @@
         <v>0.98902620920631446</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AE7" s="8">
         <v>0.4</v>
       </c>
       <c r="AF7" s="13">
+        <f t="shared" si="1"/>
+        <v>0.23156652857908377</v>
+      </c>
+      <c r="AH7">
         <f t="shared" si="0"/>
-        <v>0.23156652857908377</v>
-      </c>
-      <c r="AH7">
-        <f>AE7*12</f>
         <v>4.8000000000000007</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C8">
         <f>AVERAGEIF('Average time to Dx'!A:A, Table2[[#This Row],[Indication]],'Average time to Dx'!I:I)</f>
@@ -9822,26 +9822,26 @@
         <v>0.98499999999999999</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="AE8" s="8">
         <v>0.6</v>
       </c>
       <c r="AF8" s="13">
+        <f t="shared" si="1"/>
+        <v>0.16104722339245814</v>
+      </c>
+      <c r="AH8">
         <f t="shared" si="0"/>
-        <v>0.16104722339245814</v>
-      </c>
-      <c r="AH8">
-        <f>AE8*12</f>
         <v>7.1999999999999993</v>
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B9" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C9">
         <f>AVERAGEIF('Average time to Dx'!A:A, Table2[[#This Row],[Indication]],'Average time to Dx'!I:I)</f>
@@ -9859,26 +9859,26 @@
         <v>0.98404806422508129</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AE9" s="8">
         <v>0.8</v>
       </c>
       <c r="AF9" s="13">
+        <f t="shared" si="1"/>
+        <v>0.12339662821723285</v>
+      </c>
+      <c r="AH9">
         <f t="shared" si="0"/>
-        <v>0.12339662821723285</v>
-      </c>
-      <c r="AH9">
-        <f>AE9*12</f>
         <v>9.6000000000000014</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C10">
         <f>AVERAGEIF('Average time to Dx'!A:A, Table2[[#This Row],[Indication]],'Average time to Dx'!I:I)</f>
@@ -9896,26 +9896,26 @@
         <v>0.97968087549670724</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="AE10" s="8">
         <v>1</v>
       </c>
       <c r="AF10" s="13">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="AH10">
         <f t="shared" si="0"/>
-        <v>9.9999999999999978E-2</v>
-      </c>
-      <c r="AH10">
-        <f>AE10*12</f>
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C11">
         <f>AVERAGEIF('Average time to Dx'!A:A, Table2[[#This Row],[Indication]],'Average time to Dx'!I:I)</f>
@@ -9933,26 +9933,26 @@
         <v>0.97803123338521247</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="AE11" s="8">
         <v>1.5</v>
       </c>
       <c r="AF11" s="13">
+        <f t="shared" si="1"/>
+        <v>6.7830248213842315E-2</v>
+      </c>
+      <c r="AH11">
         <f t="shared" si="0"/>
-        <v>6.7830248213842315E-2</v>
-      </c>
-      <c r="AH11">
-        <f>AE11*12</f>
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C12">
         <f>AVERAGEIF('Average time to Dx'!A:A, Table2[[#This Row],[Indication]],'Average time to Dx'!I:I)</f>
@@ -9970,26 +9970,26 @@
         <v>0.97499999999999998</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="AE12" s="8">
         <v>2</v>
       </c>
       <c r="AF12" s="13">
+        <f t="shared" si="1"/>
+        <v>5.1316701949486232E-2</v>
+      </c>
+      <c r="AH12">
         <f t="shared" si="0"/>
-        <v>5.1316701949486232E-2</v>
-      </c>
-      <c r="AH12">
-        <f>AE12*12</f>
         <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C13">
         <f>AVERAGEIF('Average time to Dx'!A:A, Table2[[#This Row],[Indication]],'Average time to Dx'!I:I)</f>
@@ -10007,26 +10007,26 @@
         <v>0.97420758358283044</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="AE13" s="8">
         <v>3</v>
       </c>
       <c r="AF13" s="13">
+        <f t="shared" si="1"/>
+        <v>3.4510615394370281E-2</v>
+      </c>
+      <c r="AH13">
         <f t="shared" si="0"/>
-        <v>3.4510615394370281E-2</v>
-      </c>
-      <c r="AH13">
-        <f>AE13*12</f>
         <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B14" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C14">
         <f>AVERAGEIF('Average time to Dx'!A:A, Table2[[#This Row],[Indication]],'Average time to Dx'!I:I)</f>
@@ -10045,26 +10045,26 @@
         <v>0.97329309064034319</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="AE14" s="8">
         <v>4</v>
       </c>
       <c r="AF14" s="13">
+        <f t="shared" si="1"/>
+        <v>2.5996253574703254E-2</v>
+      </c>
+      <c r="AH14">
         <f t="shared" si="0"/>
-        <v>2.5996253574703254E-2</v>
-      </c>
-      <c r="AH14">
-        <f>AE14*12</f>
         <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B15" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C15">
         <f>AVERAGEIF('Average time to Dx'!A:A, Table2[[#This Row],[Indication]],'Average time to Dx'!I:I)</f>
@@ -10083,26 +10083,26 @@
         <v>0.96998730104088571</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AE15" s="8">
         <v>5</v>
       </c>
       <c r="AF15" s="13">
+        <f t="shared" si="1"/>
+        <v>2.0851637639023202E-2</v>
+      </c>
+      <c r="AH15">
         <f t="shared" si="0"/>
-        <v>2.0851637639023202E-2</v>
-      </c>
-      <c r="AH15">
-        <f>AE15*12</f>
         <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B16" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C16">
         <f>AVERAGEIF('Average time to Dx'!A:A, Table2[[#This Row],[Indication]],'Average time to Dx'!I:I)</f>
@@ -10120,26 +10120,26 @@
         <v>0.96537656833619478</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="AE16" s="8">
         <v>6</v>
       </c>
       <c r="AF16" s="13">
+        <f t="shared" si="1"/>
+        <v>1.7406806147310161E-2</v>
+      </c>
+      <c r="AH16">
         <f t="shared" si="0"/>
-        <v>1.7406806147310161E-2</v>
-      </c>
-      <c r="AH16">
-        <f>AE16*12</f>
         <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B17" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C17">
         <f>AVERAGEIF('Average time to Dx'!A:A, Table2[[#This Row],[Indication]],'Average time to Dx'!I:I)</f>
@@ -10157,26 +10157,26 @@
         <v>0.96414245512074759</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="AE17" s="8">
         <v>7</v>
       </c>
       <c r="AF17" s="13">
+        <f t="shared" si="1"/>
+        <v>1.4938794558884472E-2</v>
+      </c>
+      <c r="AH17">
         <f t="shared" si="0"/>
-        <v>1.4938794558884472E-2</v>
-      </c>
-      <c r="AH17">
-        <f>AE17*12</f>
         <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B18" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C18">
         <f>AVERAGEIF('Average time to Dx'!A:A, Table2[[#This Row],[Indication]],'Average time to Dx'!I:I)</f>
@@ -10194,26 +10194,26 @@
         <v>0.96</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="AE18" s="8">
         <v>8</v>
       </c>
       <c r="AF18" s="13">
+        <f t="shared" si="1"/>
+        <v>1.3083718633998487E-2</v>
+      </c>
+      <c r="AH18">
         <f t="shared" si="0"/>
-        <v>1.3083718633998487E-2</v>
-      </c>
-      <c r="AH18">
-        <f>AE18*12</f>
         <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B19" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C19">
         <f>AVERAGEIF('Average time to Dx'!A:A, Table2[[#This Row],[Indication]],'Average time to Dx'!I:I)</f>
@@ -10231,26 +10231,26 @@
         <v>0.95958894438849585</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="AE19" s="8">
         <v>9</v>
       </c>
       <c r="AF19" s="13">
+        <f t="shared" si="1"/>
+        <v>1.1638466884251741E-2</v>
+      </c>
+      <c r="AH19">
         <f t="shared" si="0"/>
-        <v>1.1638466884251741E-2</v>
-      </c>
-      <c r="AH19">
-        <f>AE19*12</f>
         <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B20" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C20">
         <f>AVERAGEIF('Average time to Dx'!A:A, Table2[[#This Row],[Indication]],'Average time to Dx'!I:I)</f>
@@ -10268,26 +10268,26 @@
         <v>0.95790084038094725</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="AE20" s="8">
         <v>10</v>
       </c>
       <c r="AF20" s="13">
+        <f t="shared" si="1"/>
+        <v>1.0480741793785553E-2</v>
+      </c>
+      <c r="AH20">
         <f t="shared" si="0"/>
-        <v>1.0480741793785553E-2</v>
-      </c>
-      <c r="AH20">
-        <f>AE20*12</f>
         <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B21" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C21">
         <f>AVERAGEIF('Average time to Dx'!A:A, Table2[[#This Row],[Indication]],'Average time to Dx'!I:I)</f>
@@ -10305,26 +10305,26 @@
         <v>0.95704331667905429</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="AE21" s="8">
         <v>11</v>
       </c>
       <c r="AF21" s="13">
+        <f t="shared" si="1"/>
+        <v>9.5325035687154891E-3</v>
+      </c>
+      <c r="AH21">
         <f t="shared" si="0"/>
-        <v>9.5325035687154891E-3</v>
-      </c>
-      <c r="AH21">
-        <f>AE21*12</f>
         <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C22">
         <f>AVERAGEIF('Average time to Dx'!A:A, Table2[[#This Row],[Indication]],'Average time to Dx'!I:I)</f>
@@ -10342,13 +10342,13 @@
         <v>0.95434115969405164</v>
       </c>
       <c r="G22" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="AE22" s="8">
         <v>12</v>
       </c>
       <c r="AF22" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.7416109546967213E-3</v>
       </c>
       <c r="AH22">
@@ -10357,10 +10357,10 @@
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B23" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C23">
         <f>AVERAGEIF('Average time to Dx'!A:A, Table2[[#This Row],[Indication]],'Average time to Dx'!I:I)</f>
@@ -10378,17 +10378,17 @@
         <v>0.95251806132826056</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="AE23" s="8"/>
       <c r="AF23" s="13"/>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B24" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C24">
         <f>AVERAGEIF('Average time to Dx'!A:A, Table2[[#This Row],[Indication]],'Average time to Dx'!I:I)</f>
@@ -10406,17 +10406,17 @@
         <v>0.9473704370404884</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="AE24" s="8"/>
       <c r="AF24" s="13"/>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B25" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C25">
         <f>AVERAGEIF('Average time to Dx'!A:A, Table2[[#This Row],[Indication]],'Average time to Dx'!I:I)</f>
@@ -10434,17 +10434,17 @@
         <v>0.94613288098288617</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="AE25" s="8"/>
       <c r="AF25" s="13"/>
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B26" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C26">
         <f>AVERAGEIF('Average time to Dx'!A:A, Table2[[#This Row],[Indication]],'Average time to Dx'!I:I)</f>
@@ -10462,17 +10462,17 @@
         <v>0.94569451188445663</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="AE26" s="8"/>
       <c r="AF26" s="13"/>
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B27" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C27">
         <f>AVERAGEIF('Average time to Dx'!A:A, Table2[[#This Row],[Indication]],'Average time to Dx'!I:I)</f>
@@ -10491,17 +10491,17 @@
         <v>0.93853535685012013</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="AE27" s="8"/>
       <c r="AF27" s="13"/>
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B28" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C28">
         <f>AVERAGEIF('Average time to Dx'!A:A, Table2[[#This Row],[Indication]],'Average time to Dx'!I:I)</f>
@@ -10519,17 +10519,17 @@
         <v>0.93487985972832521</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="AE28" s="8"/>
       <c r="AF28" s="13"/>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B29" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C29">
         <f>AVERAGEIF('Average time to Dx'!A:A, Table2[[#This Row],[Indication]],'Average time to Dx'!I:I)</f>
@@ -10548,17 +10548,17 @@
         <v>0.93135934628418648</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="AE29" s="8"/>
       <c r="AF29" s="13"/>
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B30" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C30">
         <f>AVERAGEIF('Average time to Dx'!A:A, Table2[[#This Row],[Indication]],'Average time to Dx'!I:I)</f>
@@ -10576,17 +10576,17 @@
         <v>0.92274469442791995</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="AE30" s="8"/>
       <c r="AF30" s="13"/>
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B31" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C31">
         <f>AVERAGEIF('Average time to Dx'!A:A, Table2[[#This Row],[Indication]],'Average time to Dx'!I:I)</f>
@@ -10604,17 +10604,17 @@
         <v>0.92076407033700591</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="AE31" s="8"/>
       <c r="AF31" s="13"/>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B32" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C32">
         <f>AVERAGEIF('Average time to Dx'!A:A, Table2[[#This Row],[Indication]],'Average time to Dx'!I:I)</f>
@@ -10632,17 +10632,17 @@
         <v>0.91811937861256732</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="AE32" s="8"/>
       <c r="AF32" s="13"/>
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B33" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C33">
         <f>AVERAGEIF('Average time to Dx'!A:A, Table2[[#This Row],[Indication]],'Average time to Dx'!I:I)</f>
@@ -10660,17 +10660,17 @@
         <v>0.91731799631206035</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="AE33" s="8"/>
       <c r="AF33" s="13"/>
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B34" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C34">
         <f>AVERAGEIF('Average time to Dx'!A:A, Table2[[#This Row],[Indication]],'Average time to Dx'!I:I)</f>
@@ -10688,17 +10688,17 @@
         <v>0.91627575051973154</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="AE34" s="8"/>
       <c r="AF34" s="13"/>
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B35" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C35">
         <f>AVERAGEIF('Average time to Dx'!A:A, Table2[[#This Row],[Indication]],'Average time to Dx'!I:I)</f>
@@ -10717,17 +10717,17 @@
         <v>0.90032178120559692</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="AE35" s="8"/>
       <c r="AF35" s="13"/>
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B36" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C36">
         <f>AVERAGEIF('Average time to Dx'!A:A, Table2[[#This Row],[Indication]],'Average time to Dx'!I:I)</f>
@@ -10745,17 +10745,17 @@
         <v>0.89804186308438894</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="AE36" s="8"/>
       <c r="AF36" s="13"/>
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B37" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C37">
         <f>AVERAGEIF('Average time to Dx'!A:A, Table2[[#This Row],[Indication]],'Average time to Dx'!I:I)</f>
@@ -10773,17 +10773,17 @@
         <v>0.89689346487481802</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="AE37" s="8"/>
       <c r="AF37" s="13"/>
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B38" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C38">
         <f>AVERAGEIF('Average time to Dx'!A:A, Table2[[#This Row],[Indication]],'Average time to Dx'!I:I)</f>
@@ -10801,17 +10801,17 @@
         <v>0.893029949157085</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="AE38" s="8"/>
       <c r="AF38" s="13"/>
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B39" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C39">
         <f>AVERAGEIF('Average time to Dx'!A:A, Table2[[#This Row],[Indication]],'Average time to Dx'!I:I)</f>
@@ -10829,17 +10829,17 @@
         <v>0.88928345234572226</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="AE39" s="8"/>
       <c r="AF39" s="13"/>
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B40" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C40">
         <f>AVERAGEIF('Average time to Dx'!A:A, Table2[[#This Row],[Indication]],'Average time to Dx'!I:I)</f>
@@ -10857,17 +10857,17 @@
         <v>0.88615119787687768</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="AE40" s="8"/>
       <c r="AF40" s="13"/>
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B41" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C41">
         <f>AVERAGEIF('Average time to Dx'!A:A, Table2[[#This Row],[Indication]],'Average time to Dx'!I:I)</f>
@@ -10885,17 +10885,17 @@
         <v>0.88541518959113252</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AE41" s="8"/>
       <c r="AF41" s="13"/>
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B42" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C42">
         <f>AVERAGEIF('Average time to Dx'!A:A, Table2[[#This Row],[Indication]],'Average time to Dx'!I:I)</f>
@@ -10913,17 +10913,17 @@
         <v>0.88123352612487915</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="AE42" s="8"/>
       <c r="AF42" s="13"/>
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C43">
         <f>AVERAGEIF('Average time to Dx'!A:A, Table2[[#This Row],[Indication]],'Average time to Dx'!I:I)</f>
@@ -10941,17 +10941,17 @@
         <v>0.87308119389303096</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="AE43" s="8"/>
       <c r="AF43" s="13"/>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B44" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C44">
         <f>AVERAGEIF('Average time to Dx'!A:A, Table2[[#This Row],[Indication]],'Average time to Dx'!I:I)</f>
@@ -10969,17 +10969,17 @@
         <v>0.87269247170812358</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="AE44" s="8"/>
       <c r="AF44" s="13"/>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B45" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C45">
         <f>AVERAGEIF('Average time to Dx'!A:A, Table2[[#This Row],[Indication]],'Average time to Dx'!I:I)</f>
@@ -10997,17 +10997,17 @@
         <v>0.86704016438112341</v>
       </c>
       <c r="G45" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AE45" s="8"/>
       <c r="AF45" s="13"/>
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B46" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C46">
         <f>AVERAGEIF('Average time to Dx'!A:A, Table2[[#This Row],[Indication]],'Average time to Dx'!I:I)</f>
@@ -11025,17 +11025,17 @@
         <v>0.83581239395415241</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="AE46" s="8"/>
       <c r="AF46" s="13"/>
     </row>
     <row r="47" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B47" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C47">
         <f>AVERAGEIF('Average time to Dx'!A:A, Table2[[#This Row],[Indication]],'Average time to Dx'!I:I)</f>
@@ -11054,17 +11054,17 @@
         <v>0.8226724410181131</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="AE47" s="8"/>
       <c r="AF47" s="13"/>
     </row>
     <row r="48" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B48" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C48">
         <f>AVERAGEIF('Average time to Dx'!A:A, Table2[[#This Row],[Indication]],'Average time to Dx'!I:I)</f>
@@ -11082,17 +11082,17 @@
         <v>0.81187987764263025</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="AE48" s="8"/>
       <c r="AF48" s="13"/>
     </row>
     <row r="49" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B49" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C49">
         <f>AVERAGEIF('Average time to Dx'!A:A, Table2[[#This Row],[Indication]],'Average time to Dx'!I:I)</f>
@@ -11110,17 +11110,17 @@
         <v>0.79367110443108546</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="AE49" s="8"/>
       <c r="AF49" s="13"/>
     </row>
     <row r="50" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B50" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C50">
         <f>AVERAGEIF('Average time to Dx'!A:A, Table2[[#This Row],[Indication]],'Average time to Dx'!I:I)</f>
@@ -11139,17 +11139,17 @@
         <v>0.75347596032828135</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="AE50" s="8"/>
       <c r="AF50" s="13"/>
     </row>
     <row r="51" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B51" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C51">
         <f>AVERAGEIF('Average time to Dx'!A:A, Table2[[#This Row],[Indication]],'Average time to Dx'!I:I)</f>
@@ -11167,17 +11167,17 @@
         <v>0.69340425244606663</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="AE51" s="8"/>
       <c r="AF51" s="13"/>
     </row>
     <row r="52" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C52">
         <f>AVERAGEIF('Average time to Dx'!A:A, Table2[[#This Row],[Indication]],'Average time to Dx'!I:I)</f>
@@ -11195,17 +11195,17 @@
         <v>0.61120116026734939</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="AE52" s="8"/>
       <c r="AF52" s="13"/>
     </row>
     <row r="53" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>49</v>
+        <v>412</v>
       </c>
       <c r="B53" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C53">
         <f>AVERAGEIF('Average time to Dx'!A:A, Table2[[#This Row],[Indication]],'Average time to Dx'!I:I)</f>
@@ -11223,7 +11223,7 @@
         <v>0.3641997169699438</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="AE53" s="8"/>
       <c r="AF53" s="13"/>
@@ -11733,7 +11733,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11750,13 +11750,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>1</v>
@@ -11767,236 +11767,236 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B2" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C2" s="6">
         <v>0.67</v>
       </c>
       <c r="D2" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B3" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C3" s="6">
         <v>0.75</v>
       </c>
       <c r="D3" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B4" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C4" s="6">
         <v>0.67</v>
       </c>
       <c r="D4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C5" s="6">
         <v>0.3</v>
       </c>
       <c r="D5" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F5" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F6" s="2" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C7" s="6">
         <v>0.7</v>
       </c>
       <c r="D7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B8" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C8" s="6">
         <v>0.6</v>
       </c>
       <c r="D8" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="F8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B9" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C9" s="6">
         <v>0.57999999999999996</v>
       </c>
       <c r="D9" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="F9" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B10" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C10" s="6">
         <v>0.91</v>
       </c>
       <c r="D10" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="F10" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B11" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C11" s="6">
         <v>0.64</v>
       </c>
       <c r="D11" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="F11" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B12" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C12" s="6">
         <v>0.68</v>
       </c>
       <c r="D12" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B13" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C13" s="6">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="F13" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B14" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C14" s="6">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="F14" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B15" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C15" s="6">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="F15" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B16" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C16" s="6">
         <v>0.77300000000000002</v>
@@ -12005,41 +12005,41 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B17" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C17" s="7">
         <v>0.752</v>
       </c>
       <c r="D17" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="F17" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B18" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C18" s="6">
         <v>0.77</v>
       </c>
       <c r="D18" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F18" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
   </sheetData>
@@ -12080,13 +12080,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>1</v>
@@ -12097,36 +12097,36 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C2" s="6">
         <v>0.18</v>
       </c>
       <c r="D2" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C3" s="6">
         <v>0.23</v>
       </c>
       <c r="D3" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -12145,7 +12145,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F6809CF-5461-4978-8AC5-CA059412643D}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -12163,13 +12163,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>1</v>
@@ -12180,190 +12180,190 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C2" s="6">
         <f>1-0.617</f>
         <v>0.38300000000000001</v>
       </c>
       <c r="D2" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C3" s="6">
         <f>1-0.431</f>
         <v>0.56899999999999995</v>
       </c>
       <c r="D3" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C4" s="6">
         <f>1-0.582</f>
         <v>0.41800000000000004</v>
       </c>
       <c r="D4" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C5" s="6">
         <f>1-0.607</f>
         <v>0.39300000000000002</v>
       </c>
       <c r="D5" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C6" s="6">
         <f>1-0.707</f>
         <v>0.29300000000000004</v>
       </c>
       <c r="D6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C7" s="6">
         <f>1-0.932</f>
         <v>6.7999999999999949E-2</v>
       </c>
       <c r="D7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B8" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C8" s="6">
         <f>1-83.94%</f>
         <v>0.16060000000000008</v>
       </c>
       <c r="D8" t="s">
+        <v>373</v>
+      </c>
+      <c r="F8" t="s">
         <v>376</v>
-      </c>
-      <c r="F8" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B9" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C9" s="6">
         <f>1-91.51%</f>
         <v>8.4899999999999975E-2</v>
       </c>
       <c r="D9" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="F9" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B10" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C10" s="6">
         <f>1-59.09%</f>
         <v>0.40910000000000002</v>
       </c>
       <c r="D10" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F10" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B11" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C11" s="6">
         <f>1-67.71%</f>
         <v>0.32290000000000008</v>
       </c>
       <c r="D11" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F11" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B12" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C12" s="6">
         <f>1-61.92%</f>
@@ -12373,43 +12373,43 @@
         <v>19</v>
       </c>
       <c r="F12" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B13" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C13" s="6">
         <f>1-74.95%</f>
         <v>0.25049999999999994</v>
       </c>
       <c r="D13" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="F13" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B14" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C14" s="6">
         <f>1-28.6%</f>
         <v>0.71399999999999997</v>
       </c>
       <c r="D14" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F14" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
   </sheetData>
@@ -12440,12 +12440,12 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
@@ -12453,7 +12453,7 @@
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
   </sheetData>
